--- a/raw_data/20200818_saline/20200818_Sensor1_Test_66.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_66.xlsx
@@ -1,508 +1,924 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4962DFC5-9EC4-4557-B655-9B11CB115BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>58687.500923</v>
       </c>
       <c r="B2" s="1">
-        <v>16.302084</v>
+        <v>16.302084000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>901.556000</v>
+        <v>901.55600000000004</v>
       </c>
       <c r="D2" s="1">
-        <v>-198.214000</v>
+        <v>-198.214</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>58697.258253</v>
       </c>
       <c r="G2" s="1">
-        <v>16.304794</v>
+        <v>16.304794000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>918.320000</v>
+        <v>918.32</v>
       </c>
       <c r="I2" s="1">
-        <v>-167.141000</v>
+        <v>-167.14099999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>58707.717396</v>
@@ -511,527 +927,527 @@
         <v>16.307699</v>
       </c>
       <c r="M2" s="1">
-        <v>940.750000</v>
+        <v>940.75</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.681000</v>
+        <v>-118.681</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>58718.230593</v>
       </c>
       <c r="Q2" s="1">
-        <v>16.310620</v>
+        <v>16.31062</v>
       </c>
       <c r="R2" s="1">
-        <v>947.274000</v>
+        <v>947.274</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.585000</v>
+        <v>-102.58499999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>58728.828616</v>
+        <v>58728.828615999999</v>
       </c>
       <c r="V2" s="1">
         <v>16.313564</v>
       </c>
       <c r="W2" s="1">
-        <v>953.585000</v>
+        <v>953.58500000000004</v>
       </c>
       <c r="X2" s="1">
-        <v>-87.819600</v>
+        <v>-87.819599999999994</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>58739.294175</v>
+        <v>58739.294175000003</v>
       </c>
       <c r="AA2" s="1">
         <v>16.316471</v>
       </c>
       <c r="AB2" s="1">
-        <v>960.724000</v>
+        <v>960.72400000000005</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.468500</v>
+        <v>-76.468500000000006</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>58749.829191</v>
+        <v>58749.829190999997</v>
       </c>
       <c r="AF2" s="1">
-        <v>16.319397</v>
+        <v>16.319396999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>965.417000</v>
+        <v>965.41700000000003</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.448900</v>
+        <v>-74.448899999999995</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>58760.258604</v>
+        <v>58760.258604000002</v>
       </c>
       <c r="AK2" s="1">
-        <v>16.322294</v>
+        <v>16.322293999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>972.605000</v>
+        <v>972.60500000000002</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.252000</v>
+        <v>-79.251999999999995</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>58770.851658</v>
       </c>
       <c r="AP2" s="1">
-        <v>16.325237</v>
+        <v>16.325237000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>980.727000</v>
+        <v>980.72699999999998</v>
       </c>
       <c r="AR2" s="1">
-        <v>-90.908100</v>
+        <v>-90.908100000000005</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>58782.140078</v>
+        <v>58782.140077999997</v>
       </c>
       <c r="AU2" s="1">
-        <v>16.328372</v>
+        <v>16.328372000000002</v>
       </c>
       <c r="AV2" s="1">
-        <v>990.652000</v>
+        <v>990.65200000000004</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.631000</v>
+        <v>-108.631</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>58793.272286</v>
+        <v>58793.272285999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>16.331465</v>
+        <v>16.331465000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>998.981000</v>
+        <v>998.98099999999999</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.267000</v>
+        <v>-124.267</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>58804.235856</v>
+        <v>58804.235855999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>16.334510</v>
+        <v>16.334510000000002</v>
       </c>
       <c r="BF2" s="1">
-        <v>1037.960000</v>
+        <v>1037.96</v>
       </c>
       <c r="BG2" s="1">
-        <v>-195.877000</v>
+        <v>-195.87700000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>58814.892929</v>
+        <v>58814.892929000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>16.337470</v>
+        <v>16.33747</v>
       </c>
       <c r="BK2" s="1">
-        <v>1105.140000</v>
+        <v>1105.1400000000001</v>
       </c>
       <c r="BL2" s="1">
-        <v>-311.382000</v>
+        <v>-311.38200000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>58826.344070</v>
+        <v>58826.344069999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>16.340651</v>
+        <v>16.340651000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1213.820000</v>
+        <v>1213.82</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-492.473000</v>
+        <v>-492.47300000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>58837.095317</v>
+        <v>58837.095316999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>16.343638</v>
+        <v>16.343637999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1335.900000</v>
+        <v>1335.9</v>
       </c>
       <c r="BV2" s="1">
-        <v>-690.445000</v>
+        <v>-690.44500000000005</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>58847.455787</v>
+        <v>58847.455786999999</v>
       </c>
       <c r="BY2" s="1">
         <v>16.346515</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1471.290000</v>
+        <v>1471.29</v>
       </c>
       <c r="CA2" s="1">
-        <v>-900.451000</v>
+        <v>-900.45100000000002</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>58858.551256</v>
+        <v>58858.551255999999</v>
       </c>
       <c r="CD2" s="1">
         <v>16.349598</v>
       </c>
       <c r="CE2" s="1">
-        <v>1825.310000</v>
+        <v>1825.31</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1398.230000</v>
+        <v>-1398.23</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>58687.857545</v>
+        <v>58687.857544999999</v>
       </c>
       <c r="B3" s="1">
-        <v>16.302183</v>
+        <v>16.302182999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>901.472000</v>
+        <v>901.47199999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>-198.099000</v>
+        <v>-198.09899999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>58697.685773</v>
+        <v>58697.685772999997</v>
       </c>
       <c r="G3" s="1">
-        <v>16.304913</v>
+        <v>16.304912999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>918.599000</v>
+        <v>918.59900000000005</v>
       </c>
       <c r="I3" s="1">
-        <v>-167.525000</v>
+        <v>-167.52500000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>58708.123123</v>
+        <v>58708.123122999998</v>
       </c>
       <c r="L3" s="1">
-        <v>16.307812</v>
+        <v>16.307811999999998</v>
       </c>
       <c r="M3" s="1">
-        <v>940.628000</v>
+        <v>940.62800000000004</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.639000</v>
+        <v>-118.639</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>58718.642271</v>
+        <v>58718.642270999997</v>
       </c>
       <c r="Q3" s="1">
         <v>16.310734</v>
       </c>
       <c r="R3" s="1">
-        <v>947.300000</v>
+        <v>947.3</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.588000</v>
+        <v>-102.58799999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>58729.180740</v>
+        <v>58729.180740000003</v>
       </c>
       <c r="V3" s="1">
         <v>16.313661</v>
       </c>
       <c r="W3" s="1">
-        <v>953.674000</v>
+        <v>953.67399999999998</v>
       </c>
       <c r="X3" s="1">
-        <v>-87.754100</v>
+        <v>-87.754099999999994</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>58739.637429</v>
+        <v>58739.637429000002</v>
       </c>
       <c r="AA3" s="1">
-        <v>16.316566</v>
+        <v>16.316566000000002</v>
       </c>
       <c r="AB3" s="1">
-        <v>960.748000</v>
+        <v>960.74800000000005</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.462600</v>
+        <v>-76.462599999999995</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>58750.186311</v>
+        <v>58750.186310999998</v>
       </c>
       <c r="AF3" s="1">
-        <v>16.319496</v>
+        <v>16.319496000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>965.367000</v>
+        <v>965.36699999999996</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.501700</v>
+        <v>-74.5017</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>58760.996132</v>
       </c>
       <c r="AK3" s="1">
-        <v>16.322499</v>
+        <v>16.322499000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>972.620000</v>
+        <v>972.62</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.272300</v>
+        <v>-79.272300000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>58771.586699</v>
+        <v>58771.586698999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>16.325441</v>
+        <v>16.325441000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>980.740000</v>
+        <v>980.74</v>
       </c>
       <c r="AR3" s="1">
-        <v>-90.914400</v>
+        <v>-90.914400000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>58782.546797</v>
+        <v>58782.546797000003</v>
       </c>
       <c r="AU3" s="1">
-        <v>16.328485</v>
+        <v>16.328485000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>990.649000</v>
+        <v>990.649</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.652000</v>
+        <v>-108.652</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>58793.689423</v>
+        <v>58793.689423000003</v>
       </c>
       <c r="AZ3" s="1">
-        <v>16.331580</v>
+        <v>16.331579999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>998.974000</v>
+        <v>998.97400000000005</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.239000</v>
+        <v>-124.239</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>58804.599424</v>
       </c>
       <c r="BE3" s="1">
-        <v>16.334611</v>
+        <v>16.334610999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1037.970000</v>
+        <v>1037.97</v>
       </c>
       <c r="BG3" s="1">
-        <v>-195.884000</v>
+        <v>-195.88399999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>58815.621026</v>
+        <v>58815.621026000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>16.337673</v>
+        <v>16.337672999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1105.140000</v>
+        <v>1105.1400000000001</v>
       </c>
       <c r="BL3" s="1">
-        <v>-311.386000</v>
+        <v>-311.38600000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>58826.862882</v>
+        <v>58826.862882000001</v>
       </c>
       <c r="BO3" s="1">
         <v>16.340795</v>
       </c>
       <c r="BP3" s="1">
-        <v>1213.890000</v>
+        <v>1213.8900000000001</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-492.480000</v>
+        <v>-492.48</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>58837.250068</v>
+        <v>58837.250068000001</v>
       </c>
       <c r="BT3" s="1">
         <v>16.343681</v>
       </c>
       <c r="BU3" s="1">
-        <v>1335.890000</v>
+        <v>1335.89</v>
       </c>
       <c r="BV3" s="1">
-        <v>-690.407000</v>
+        <v>-690.40700000000004</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>58847.941830</v>
+        <v>58847.941830000003</v>
       </c>
       <c r="BY3" s="1">
-        <v>16.346651</v>
+        <v>16.346651000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1471.390000</v>
+        <v>1471.39</v>
       </c>
       <c r="CA3" s="1">
-        <v>-900.469000</v>
+        <v>-900.46900000000005</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>58859.144011</v>
+        <v>58859.144010999997</v>
       </c>
       <c r="CD3" s="1">
-        <v>16.349762</v>
+        <v>16.349761999999998</v>
       </c>
       <c r="CE3" s="1">
-        <v>1823.900000</v>
+        <v>1823.9</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1398.130000</v>
+        <v>-1398.13</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>58688.295046</v>
+        <v>58688.295045999999</v>
       </c>
       <c r="B4" s="1">
-        <v>16.302304</v>
+        <v>16.302303999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>901.351000</v>
+        <v>901.351</v>
       </c>
       <c r="D4" s="1">
-        <v>-198.278000</v>
+        <v>-198.27799999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>58697.986361</v>
+        <v>58697.986361000003</v>
       </c>
       <c r="G4" s="1">
-        <v>16.304996</v>
+        <v>16.304995999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>918.539000</v>
+        <v>918.53899999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-167.216000</v>
+        <v>-167.21600000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>58708.468337</v>
+        <v>58708.468336999998</v>
       </c>
       <c r="L4" s="1">
-        <v>16.307908</v>
+        <v>16.307908000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>940.795000</v>
+        <v>940.79499999999996</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.691000</v>
+        <v>-118.691</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>58718.991425</v>
@@ -1040,1176 +1456,1176 @@
         <v>16.310831</v>
       </c>
       <c r="R4" s="1">
-        <v>947.346000</v>
+        <v>947.346</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.628000</v>
+        <v>-102.628</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>58729.524468</v>
+        <v>58729.524468000003</v>
       </c>
       <c r="V4" s="1">
-        <v>16.313757</v>
+        <v>16.313756999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>953.710000</v>
+        <v>953.71</v>
       </c>
       <c r="X4" s="1">
-        <v>-87.798600</v>
+        <v>-87.798599999999993</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>58740.334773</v>
+        <v>58740.334773000002</v>
       </c>
       <c r="AA4" s="1">
-        <v>16.316760</v>
+        <v>16.316759999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>960.705000</v>
+        <v>960.70500000000004</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.382700</v>
+        <v>-76.3827</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>58750.871287</v>
+        <v>58750.871287000002</v>
       </c>
       <c r="AF4" s="1">
-        <v>16.319686</v>
+        <v>16.319686000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>965.436000</v>
+        <v>965.43600000000004</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.408400</v>
+        <v>-74.4084</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>58761.346794</v>
+        <v>58761.346793999997</v>
       </c>
       <c r="AK4" s="1">
-        <v>16.322596</v>
+        <v>16.322596000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>972.631000</v>
+        <v>972.63099999999997</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.244200</v>
+        <v>-79.244200000000006</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>58771.947290</v>
+        <v>58771.947289999996</v>
       </c>
       <c r="AP4" s="1">
-        <v>16.325541</v>
+        <v>16.325541000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>980.704000</v>
+        <v>980.70399999999995</v>
       </c>
       <c r="AR4" s="1">
-        <v>-90.919400</v>
+        <v>-90.919399999999996</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>58782.907884</v>
       </c>
       <c r="AU4" s="1">
-        <v>16.328586</v>
+        <v>16.328586000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>990.639000</v>
+        <v>990.63900000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.608000</v>
+        <v>-108.608</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>58794.352114</v>
+        <v>58794.352114000001</v>
       </c>
       <c r="AZ4" s="1">
         <v>16.331764</v>
       </c>
       <c r="BA4" s="1">
-        <v>998.963000</v>
+        <v>998.96299999999997</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.255000</v>
+        <v>-124.255</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>58805.065166</v>
       </c>
       <c r="BE4" s="1">
-        <v>16.334740</v>
+        <v>16.33474</v>
       </c>
       <c r="BF4" s="1">
-        <v>1037.960000</v>
+        <v>1037.96</v>
       </c>
       <c r="BG4" s="1">
-        <v>-195.891000</v>
+        <v>-195.89099999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>58816.086768</v>
+        <v>58816.086768000001</v>
       </c>
       <c r="BJ4" s="1">
         <v>16.337802</v>
       </c>
       <c r="BK4" s="1">
-        <v>1105.160000</v>
+        <v>1105.1600000000001</v>
       </c>
       <c r="BL4" s="1">
-        <v>-311.360000</v>
+        <v>-311.36</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>58827.279986</v>
+        <v>58827.279986000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>16.340911</v>
+        <v>16.340910999999998</v>
       </c>
       <c r="BP4" s="1">
-        <v>1213.860000</v>
+        <v>1213.8599999999999</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-492.471000</v>
+        <v>-492.471</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>58837.643891</v>
       </c>
       <c r="BT4" s="1">
-        <v>16.343790</v>
+        <v>16.343789999999998</v>
       </c>
       <c r="BU4" s="1">
-        <v>1335.930000</v>
+        <v>1335.93</v>
       </c>
       <c r="BV4" s="1">
-        <v>-690.322000</v>
+        <v>-690.322</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>58848.389750</v>
+        <v>58848.389750000002</v>
       </c>
       <c r="BY4" s="1">
-        <v>16.346775</v>
+        <v>16.346775000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1471.150000</v>
+        <v>1471.15</v>
       </c>
       <c r="CA4" s="1">
-        <v>-900.505000</v>
+        <v>-900.505</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>58859.677703</v>
+        <v>58859.677703000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>16.349910</v>
+        <v>16.349910000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1825.080000</v>
+        <v>1825.08</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1398.570000</v>
+        <v>-1398.57</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>58688.567322</v>
+        <v>58688.567322000003</v>
       </c>
       <c r="B5" s="1">
-        <v>16.302380</v>
+        <v>16.302379999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>901.401000</v>
+        <v>901.40099999999995</v>
       </c>
       <c r="D5" s="1">
-        <v>-198.222000</v>
+        <v>-198.22200000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>58698.326108</v>
+        <v>58698.326108000001</v>
       </c>
       <c r="G5" s="1">
-        <v>16.305091</v>
+        <v>16.305091000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>918.857000</v>
+        <v>918.85699999999997</v>
       </c>
       <c r="I5" s="1">
-        <v>-167.497000</v>
+        <v>-167.49700000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>58708.814014</v>
+        <v>58708.814014000003</v>
       </c>
       <c r="L5" s="1">
         <v>16.308004</v>
       </c>
       <c r="M5" s="1">
-        <v>940.765000</v>
+        <v>940.76499999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.584000</v>
+        <v>-118.584</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>58719.341599</v>
+        <v>58719.341598999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>16.310928</v>
+        <v>16.310928000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>947.300000</v>
+        <v>947.3</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.646000</v>
+        <v>-102.646</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>58730.211921</v>
+        <v>58730.211921000002</v>
       </c>
       <c r="V5" s="1">
         <v>16.313948</v>
       </c>
       <c r="W5" s="1">
-        <v>953.699000</v>
+        <v>953.69899999999996</v>
       </c>
       <c r="X5" s="1">
-        <v>-87.702100</v>
+        <v>-87.702100000000002</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>58740.678997</v>
+        <v>58740.678997000003</v>
       </c>
       <c r="AA5" s="1">
         <v>16.316855</v>
       </c>
       <c r="AB5" s="1">
-        <v>960.784000</v>
+        <v>960.78399999999999</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.465800</v>
+        <v>-76.465800000000002</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>58751.215509</v>
+        <v>58751.215509000001</v>
       </c>
       <c r="AF5" s="1">
         <v>16.319782</v>
       </c>
       <c r="AG5" s="1">
-        <v>965.427000</v>
+        <v>965.42700000000002</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.430900</v>
+        <v>-74.430899999999994</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>58761.694831</v>
+        <v>58761.694831000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>16.322693</v>
+        <v>16.322693000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>972.625000</v>
+        <v>972.625</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.264800</v>
+        <v>-79.264799999999994</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>58772.616432</v>
+        <v>58772.616432000003</v>
       </c>
       <c r="AP5" s="1">
-        <v>16.325727</v>
+        <v>16.325727000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>980.714000</v>
+        <v>980.71400000000006</v>
       </c>
       <c r="AR5" s="1">
-        <v>-90.911500</v>
+        <v>-90.911500000000004</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>58783.584923</v>
+        <v>58783.584923000002</v>
       </c>
       <c r="AU5" s="1">
-        <v>16.328774</v>
+        <v>16.328773999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>990.631000</v>
+        <v>990.63099999999997</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.632000</v>
+        <v>-108.63200000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>58794.757809</v>
+        <v>58794.757809000002</v>
       </c>
       <c r="AZ5" s="1">
-        <v>16.331877</v>
+        <v>16.331876999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>998.992000</v>
+        <v>998.99199999999996</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.245000</v>
+        <v>-124.245</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>58805.320110</v>
+        <v>58805.320110000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>16.334811</v>
+        <v>16.334810999999998</v>
       </c>
       <c r="BF5" s="1">
-        <v>1037.960000</v>
+        <v>1037.96</v>
       </c>
       <c r="BG5" s="1">
-        <v>-195.874000</v>
+        <v>-195.874</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>58816.465215</v>
+        <v>58816.465214999997</v>
       </c>
       <c r="BJ5" s="1">
-        <v>16.337907</v>
+        <v>16.337907000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1105.130000</v>
+        <v>1105.1300000000001</v>
       </c>
       <c r="BL5" s="1">
-        <v>-311.412000</v>
+        <v>-311.41199999999998</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>58827.677281</v>
+        <v>58827.677280999997</v>
       </c>
       <c r="BO5" s="1">
-        <v>16.341021</v>
+        <v>16.341021000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1213.800000</v>
+        <v>1213.8</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-492.456000</v>
+        <v>-492.45600000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>58838.075907</v>
+        <v>58838.075906999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>16.343910</v>
+        <v>16.343910000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1335.920000</v>
+        <v>1335.92</v>
       </c>
       <c r="BV5" s="1">
-        <v>-690.373000</v>
+        <v>-690.37300000000005</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>58848.851526</v>
+        <v>58848.851525999999</v>
       </c>
       <c r="BY5" s="1">
-        <v>16.346903</v>
+        <v>16.346903000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1471.310000</v>
+        <v>1471.31</v>
       </c>
       <c r="CA5" s="1">
-        <v>-900.532000</v>
+        <v>-900.53200000000004</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>58860.196023</v>
+        <v>58860.196022999997</v>
       </c>
       <c r="CD5" s="1">
         <v>16.350054</v>
       </c>
       <c r="CE5" s="1">
-        <v>1825.770000</v>
+        <v>1825.77</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1397.650000</v>
+        <v>-1397.65</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>58688.907081</v>
+        <v>58688.907080999998</v>
       </c>
       <c r="B6" s="1">
         <v>16.302474</v>
       </c>
       <c r="C6" s="1">
-        <v>901.441000</v>
+        <v>901.44100000000003</v>
       </c>
       <c r="D6" s="1">
-        <v>-198.160000</v>
+        <v>-198.16</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>58698.671324</v>
+        <v>58698.671324000003</v>
       </c>
       <c r="G6" s="1">
-        <v>16.305186</v>
+        <v>16.305185999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>918.828000</v>
+        <v>918.82799999999997</v>
       </c>
       <c r="I6" s="1">
-        <v>-167.312000</v>
+        <v>-167.31200000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>58709.508945</v>
+        <v>58709.508945000001</v>
       </c>
       <c r="L6" s="1">
         <v>16.308197</v>
       </c>
       <c r="M6" s="1">
-        <v>940.751000</v>
+        <v>940.75099999999998</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.638000</v>
+        <v>-118.63800000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>58720.037500</v>
+        <v>58720.037499999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>16.311122</v>
+        <v>16.311122000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>947.269000</v>
+        <v>947.26900000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.631000</v>
+        <v>-102.631</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>58730.560112</v>
+        <v>58730.560111999999</v>
       </c>
       <c r="V6" s="1">
-        <v>16.314044</v>
+        <v>16.314043999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>953.548000</v>
+        <v>953.548</v>
       </c>
       <c r="X6" s="1">
-        <v>-87.871500</v>
+        <v>-87.871499999999997</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>58741.029670</v>
+        <v>58741.029670000004</v>
       </c>
       <c r="AA6" s="1">
-        <v>16.316953</v>
+        <v>16.316953000000002</v>
       </c>
       <c r="AB6" s="1">
-        <v>960.755000</v>
+        <v>960.755</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.457100</v>
+        <v>-76.457099999999997</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>58751.561221</v>
+        <v>58751.561221000004</v>
       </c>
       <c r="AF6" s="1">
-        <v>16.319878</v>
+        <v>16.319877999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>965.425000</v>
+        <v>965.42499999999995</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.415500</v>
+        <v>-74.415499999999994</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>58762.350727</v>
+        <v>58762.350726999997</v>
       </c>
       <c r="AK6" s="1">
         <v>16.322875</v>
       </c>
       <c r="AL6" s="1">
-        <v>972.627000</v>
+        <v>972.62699999999995</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.270100</v>
+        <v>-79.270099999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>58773.060569</v>
+        <v>58773.060569000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>16.325850</v>
+        <v>16.325849999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>980.724000</v>
+        <v>980.72400000000005</v>
       </c>
       <c r="AR6" s="1">
-        <v>-90.911700</v>
+        <v>-90.911699999999996</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>58784.036811</v>
+        <v>58784.036810999998</v>
       </c>
       <c r="AU6" s="1">
         <v>16.328899</v>
       </c>
       <c r="AV6" s="1">
-        <v>990.629000</v>
+        <v>990.62900000000002</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.637000</v>
+        <v>-108.637</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>58795.146668</v>
+        <v>58795.146668000001</v>
       </c>
       <c r="AZ6" s="1">
         <v>16.331985</v>
       </c>
       <c r="BA6" s="1">
-        <v>998.971000</v>
+        <v>998.971</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.256000</v>
+        <v>-124.256</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>58805.681198</v>
+        <v>58805.681197999998</v>
       </c>
       <c r="BE6" s="1">
-        <v>16.334911</v>
+        <v>16.334911000000002</v>
       </c>
       <c r="BF6" s="1">
-        <v>1037.970000</v>
+        <v>1037.97</v>
       </c>
       <c r="BG6" s="1">
-        <v>-195.890000</v>
+        <v>-195.89</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>58816.840719</v>
       </c>
       <c r="BJ6" s="1">
-        <v>16.338011</v>
+        <v>16.338011000000002</v>
       </c>
       <c r="BK6" s="1">
-        <v>1105.160000</v>
+        <v>1105.1600000000001</v>
       </c>
       <c r="BL6" s="1">
-        <v>-311.381000</v>
+        <v>-311.38099999999997</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>58828.101856</v>
+        <v>58828.101856000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>16.341139</v>
+        <v>16.341138999999998</v>
       </c>
       <c r="BP6" s="1">
-        <v>1213.850000</v>
+        <v>1213.8499999999999</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-492.497000</v>
+        <v>-492.49700000000001</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>58838.487929</v>
+        <v>58838.487929000003</v>
       </c>
       <c r="BT6" s="1">
-        <v>16.344024</v>
+        <v>16.344024000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1335.950000</v>
+        <v>1335.95</v>
       </c>
       <c r="BV6" s="1">
-        <v>-690.291000</v>
+        <v>-690.29100000000005</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>58849.296439</v>
+        <v>58849.296438999998</v>
       </c>
       <c r="BY6" s="1">
-        <v>16.347027</v>
+        <v>16.347027000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1471.360000</v>
+        <v>1471.36</v>
       </c>
       <c r="CA6" s="1">
-        <v>-900.531000</v>
+        <v>-900.53099999999995</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>58860.714806</v>
+        <v>58860.714806000004</v>
       </c>
       <c r="CD6" s="1">
         <v>16.350199</v>
       </c>
       <c r="CE6" s="1">
-        <v>1824.650000</v>
+        <v>1824.65</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1397.090000</v>
+        <v>-1397.09</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>58689.250311</v>
+        <v>58689.250311000003</v>
       </c>
       <c r="B7" s="1">
-        <v>16.302570</v>
+        <v>16.302569999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>901.409000</v>
+        <v>901.40899999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-198.089000</v>
+        <v>-198.089</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>58699.363770</v>
+        <v>58699.363770000004</v>
       </c>
       <c r="G7" s="1">
-        <v>16.305379</v>
+        <v>16.305378999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>918.127000</v>
+        <v>918.12699999999995</v>
       </c>
       <c r="I7" s="1">
-        <v>-167.820000</v>
+        <v>-167.82</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>58709.852638</v>
+        <v>58709.852637999997</v>
       </c>
       <c r="L7" s="1">
-        <v>16.308292</v>
+        <v>16.308292000000002</v>
       </c>
       <c r="M7" s="1">
-        <v>940.823000</v>
+        <v>940.82299999999998</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.637000</v>
+        <v>-118.637</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>58720.388686</v>
+        <v>58720.388685999998</v>
       </c>
       <c r="Q7" s="1">
-        <v>16.311219</v>
+        <v>16.311219000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>947.317000</v>
+        <v>947.31700000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.595000</v>
+        <v>-102.595</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>58730.904337</v>
       </c>
       <c r="V7" s="1">
-        <v>16.314140</v>
+        <v>16.314139999999998</v>
       </c>
       <c r="W7" s="1">
-        <v>953.620000</v>
+        <v>953.62</v>
       </c>
       <c r="X7" s="1">
-        <v>-87.750800</v>
+        <v>-87.750799999999998</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>58741.700258</v>
+        <v>58741.700257999997</v>
       </c>
       <c r="AA7" s="1">
-        <v>16.317139</v>
+        <v>16.317139000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>960.770000</v>
+        <v>960.77</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.497500</v>
+        <v>-76.497500000000002</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>58752.215973</v>
+        <v>58752.215972999998</v>
       </c>
       <c r="AF7" s="1">
-        <v>16.320060</v>
+        <v>16.320060000000002</v>
       </c>
       <c r="AG7" s="1">
-        <v>965.391000</v>
+        <v>965.39099999999996</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.389600</v>
+        <v>-74.389600000000002</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>58762.742568</v>
+        <v>58762.742568000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>16.322984</v>
+        <v>16.322984000000002</v>
       </c>
       <c r="AL7" s="1">
-        <v>972.625000</v>
+        <v>972.625</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.263000</v>
+        <v>-79.263000000000005</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>58773.422920</v>
+        <v>58773.422919999997</v>
       </c>
       <c r="AP7" s="1">
         <v>16.325951</v>
       </c>
       <c r="AQ7" s="1">
-        <v>980.714000</v>
+        <v>980.71400000000006</v>
       </c>
       <c r="AR7" s="1">
-        <v>-90.904400</v>
+        <v>-90.904399999999995</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>58784.402861</v>
+        <v>58784.402861000002</v>
       </c>
       <c r="AU7" s="1">
-        <v>16.329001</v>
+        <v>16.329001000000002</v>
       </c>
       <c r="AV7" s="1">
-        <v>990.632000</v>
+        <v>990.63199999999995</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.624000</v>
+        <v>-108.624</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>58795.523628</v>
+        <v>58795.523628000003</v>
       </c>
       <c r="AZ7" s="1">
-        <v>16.332090</v>
+        <v>16.332090000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>998.975000</v>
+        <v>998.97500000000002</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.253000</v>
+        <v>-124.253</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>58806.114702</v>
+        <v>58806.114701999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>16.335032</v>
+        <v>16.335032000000002</v>
       </c>
       <c r="BF7" s="1">
-        <v>1037.970000</v>
+        <v>1037.97</v>
       </c>
       <c r="BG7" s="1">
-        <v>-195.885000</v>
+        <v>-195.88499999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>58817.270266</v>
       </c>
       <c r="BJ7" s="1">
-        <v>16.338131</v>
+        <v>16.338131000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1105.150000</v>
+        <v>1105.1500000000001</v>
       </c>
       <c r="BL7" s="1">
-        <v>-311.398000</v>
+        <v>-311.39800000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>58828.493695</v>
+        <v>58828.493694999997</v>
       </c>
       <c r="BO7" s="1">
         <v>16.341248</v>
       </c>
       <c r="BP7" s="1">
-        <v>1213.850000</v>
+        <v>1213.8499999999999</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-492.506000</v>
+        <v>-492.50599999999997</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>58838.904722</v>
+        <v>58838.904721999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>16.344140</v>
+        <v>16.344139999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1335.820000</v>
+        <v>1335.82</v>
       </c>
       <c r="BV7" s="1">
-        <v>-690.270000</v>
+        <v>-690.27</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>58849.750245</v>
+        <v>58849.750245000003</v>
       </c>
       <c r="BY7" s="1">
-        <v>16.347153</v>
+        <v>16.347152999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1471.310000</v>
+        <v>1471.31</v>
       </c>
       <c r="CA7" s="1">
-        <v>-900.469000</v>
+        <v>-900.46900000000005</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>58861.234118</v>
       </c>
       <c r="CD7" s="1">
-        <v>16.350343</v>
+        <v>16.350342999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1824.780000</v>
+        <v>1824.78</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1397.170000</v>
+        <v>-1397.17</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>58689.935782</v>
       </c>
       <c r="B8" s="1">
-        <v>16.302760</v>
+        <v>16.302759999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>901.419000</v>
+        <v>901.41899999999998</v>
       </c>
       <c r="D8" s="1">
-        <v>-198.286000</v>
+        <v>-198.286</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>58699.714907</v>
+        <v>58699.714907000001</v>
       </c>
       <c r="G8" s="1">
-        <v>16.305476</v>
+        <v>16.305475999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>918.454000</v>
+        <v>918.45399999999995</v>
       </c>
       <c r="I8" s="1">
-        <v>-167.099000</v>
+        <v>-167.09899999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>58710.203310</v>
+        <v>58710.203309999997</v>
       </c>
       <c r="L8" s="1">
-        <v>16.308390</v>
+        <v>16.308389999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>940.807000</v>
+        <v>940.80700000000002</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.689000</v>
+        <v>-118.68899999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>58720.736382</v>
+        <v>58720.736382000003</v>
       </c>
       <c r="Q8" s="1">
-        <v>16.311316</v>
+        <v>16.311316000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>947.334000</v>
+        <v>947.33399999999995</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.605000</v>
+        <v>-102.605</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>58731.561041</v>
+        <v>58731.561041000001</v>
       </c>
       <c r="V8" s="1">
-        <v>16.314323</v>
+        <v>16.314323000000002</v>
       </c>
       <c r="W8" s="1">
-        <v>953.668000</v>
+        <v>953.66800000000001</v>
       </c>
       <c r="X8" s="1">
-        <v>-87.935400</v>
+        <v>-87.935400000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>58742.075772</v>
+        <v>58742.075771999997</v>
       </c>
       <c r="AA8" s="1">
-        <v>16.317243</v>
+        <v>16.317243000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>960.817000</v>
+        <v>960.81700000000001</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.499800</v>
+        <v>-76.499799999999993</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>58752.591908</v>
+        <v>58752.591908000002</v>
       </c>
       <c r="AF8" s="1">
-        <v>16.320164</v>
+        <v>16.320163999999998</v>
       </c>
       <c r="AG8" s="1">
-        <v>965.397000</v>
+        <v>965.39700000000005</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.395300</v>
+        <v>-74.395300000000006</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>58763.091258</v>
       </c>
       <c r="AK8" s="1">
-        <v>16.323081</v>
+        <v>16.323080999999998</v>
       </c>
       <c r="AL8" s="1">
-        <v>972.607000</v>
+        <v>972.60699999999997</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.255500</v>
+        <v>-79.255499999999998</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>58773.781525</v>
+        <v>58773.781524999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>16.326050</v>
+        <v>16.326049999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>980.713000</v>
+        <v>980.71299999999997</v>
       </c>
       <c r="AR8" s="1">
-        <v>-90.902500</v>
+        <v>-90.902500000000003</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>58784.768377</v>
       </c>
       <c r="AU8" s="1">
-        <v>16.329102</v>
+        <v>16.329101999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>990.642000</v>
+        <v>990.64200000000005</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.628000</v>
+        <v>-108.628</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>58795.950218</v>
+        <v>58795.950217999998</v>
       </c>
       <c r="AZ8" s="1">
-        <v>16.332208</v>
+        <v>16.332208000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>998.956000</v>
+        <v>998.95600000000002</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.267000</v>
+        <v>-124.267</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>58806.404397</v>
+        <v>58806.404396999998</v>
       </c>
       <c r="BE8" s="1">
-        <v>16.335112</v>
+        <v>16.335111999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1037.970000</v>
+        <v>1037.97</v>
       </c>
       <c r="BG8" s="1">
-        <v>-195.883000</v>
+        <v>-195.88300000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>58817.617918</v>
+        <v>58817.617918000004</v>
       </c>
       <c r="BJ8" s="1">
         <v>16.338227</v>
       </c>
       <c r="BK8" s="1">
-        <v>1105.160000</v>
+        <v>1105.1600000000001</v>
       </c>
       <c r="BL8" s="1">
-        <v>-311.389000</v>
+        <v>-311.38900000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>58828.913342</v>
@@ -2218,1298 +2634,1298 @@
         <v>16.341365</v>
       </c>
       <c r="BP8" s="1">
-        <v>1213.850000</v>
+        <v>1213.8499999999999</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-492.469000</v>
+        <v>-492.46899999999999</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>58839.320369</v>
+        <v>58839.320369000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>16.344256</v>
+        <v>16.344256000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1335.870000</v>
+        <v>1335.87</v>
       </c>
       <c r="BV8" s="1">
-        <v>-690.224000</v>
+        <v>-690.22400000000005</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>58850.199655</v>
+        <v>58850.199654999997</v>
       </c>
       <c r="BY8" s="1">
-        <v>16.347278</v>
+        <v>16.347277999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1471.270000</v>
+        <v>1471.27</v>
       </c>
       <c r="CA8" s="1">
-        <v>-900.610000</v>
+        <v>-900.61</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>58861.780249</v>
+        <v>58861.780249000003</v>
       </c>
       <c r="CD8" s="1">
-        <v>16.350495</v>
+        <v>16.350494999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1825.330000</v>
+        <v>1825.33</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1396.970000</v>
+        <v>-1396.97</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>58690.272566</v>
       </c>
       <c r="B9" s="1">
-        <v>16.302853</v>
+        <v>16.302852999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>901.298000</v>
+        <v>901.298</v>
       </c>
       <c r="D9" s="1">
-        <v>-197.940000</v>
+        <v>-197.94</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>58700.060121</v>
+        <v>58700.060121000002</v>
       </c>
       <c r="G9" s="1">
-        <v>16.305572</v>
+        <v>16.305572000000002</v>
       </c>
       <c r="H9" s="1">
-        <v>918.658000</v>
+        <v>918.65800000000002</v>
       </c>
       <c r="I9" s="1">
-        <v>-167.372000</v>
+        <v>-167.37200000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>58710.851579</v>
+        <v>58710.851579000002</v>
       </c>
       <c r="L9" s="1">
-        <v>16.308570</v>
+        <v>16.30857</v>
       </c>
       <c r="M9" s="1">
-        <v>940.792000</v>
+        <v>940.79200000000003</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.639000</v>
+        <v>-118.639</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>58721.393550</v>
+        <v>58721.393550000001</v>
       </c>
       <c r="Q9" s="1">
         <v>16.311498</v>
       </c>
       <c r="R9" s="1">
-        <v>947.335000</v>
+        <v>947.33500000000004</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.633000</v>
+        <v>-102.633</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>58731.934559</v>
+        <v>58731.934559000001</v>
       </c>
       <c r="V9" s="1">
-        <v>16.314426</v>
+        <v>16.314426000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>953.673000</v>
+        <v>953.673</v>
       </c>
       <c r="X9" s="1">
-        <v>-87.818100</v>
+        <v>-87.818100000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>58742.423457</v>
+        <v>58742.423456999997</v>
       </c>
       <c r="AA9" s="1">
-        <v>16.317340</v>
+        <v>16.317340000000002</v>
       </c>
       <c r="AB9" s="1">
-        <v>960.757000</v>
+        <v>960.75699999999995</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.465900</v>
+        <v>-76.465900000000005</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>58752.937619</v>
+        <v>58752.937618999997</v>
       </c>
       <c r="AF9" s="1">
-        <v>16.320260</v>
+        <v>16.320260000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>965.439000</v>
+        <v>965.43899999999996</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.393400</v>
+        <v>-74.3934</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>58763.438949</v>
+        <v>58763.438949000003</v>
       </c>
       <c r="AK9" s="1">
-        <v>16.323177</v>
+        <v>16.323177000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>972.640000</v>
+        <v>972.64</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.244100</v>
+        <v>-79.244100000000003</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>58774.218967</v>
+        <v>58774.218967000001</v>
       </c>
       <c r="AP9" s="1">
         <v>16.326172</v>
       </c>
       <c r="AQ9" s="1">
-        <v>980.720000</v>
+        <v>980.72</v>
       </c>
       <c r="AR9" s="1">
-        <v>-90.898400</v>
+        <v>-90.898399999999995</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>58785.189516</v>
+        <v>58785.189515999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>16.329219</v>
+        <v>16.329218999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>990.641000</v>
+        <v>990.64099999999996</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.632000</v>
+        <v>-108.63200000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>58796.240380</v>
+        <v>58796.240380000003</v>
       </c>
       <c r="AZ9" s="1">
-        <v>16.332289</v>
+        <v>16.332288999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>998.957000</v>
+        <v>998.95699999999999</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.247000</v>
+        <v>-124.247</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>58806.766967</v>
+        <v>58806.766967000003</v>
       </c>
       <c r="BE9" s="1">
         <v>16.335213</v>
       </c>
       <c r="BF9" s="1">
-        <v>1037.970000</v>
+        <v>1037.97</v>
       </c>
       <c r="BG9" s="1">
-        <v>-195.889000</v>
+        <v>-195.88900000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>58817.991405</v>
+        <v>58817.991405000001</v>
       </c>
       <c r="BJ9" s="1">
         <v>16.338331</v>
       </c>
       <c r="BK9" s="1">
-        <v>1105.180000</v>
+        <v>1105.18</v>
       </c>
       <c r="BL9" s="1">
-        <v>-311.385000</v>
+        <v>-311.38499999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>58829.313586</v>
+        <v>58829.313585999997</v>
       </c>
       <c r="BO9" s="1">
         <v>16.341476</v>
       </c>
       <c r="BP9" s="1">
-        <v>1213.820000</v>
+        <v>1213.82</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-492.481000</v>
+        <v>-492.48099999999999</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>58839.753872</v>
+        <v>58839.753872000001</v>
       </c>
       <c r="BT9" s="1">
         <v>16.344376</v>
       </c>
       <c r="BU9" s="1">
-        <v>1335.810000</v>
+        <v>1335.81</v>
       </c>
       <c r="BV9" s="1">
-        <v>-690.206000</v>
+        <v>-690.20600000000002</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>58850.656973</v>
+        <v>58850.656972999997</v>
       </c>
       <c r="BY9" s="1">
-        <v>16.347405</v>
+        <v>16.347404999999998</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1471.280000</v>
+        <v>1471.28</v>
       </c>
       <c r="CA9" s="1">
-        <v>-900.447000</v>
+        <v>-900.447</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>58862.311961</v>
+        <v>58862.311960999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>16.350642</v>
+        <v>16.350642000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1824.200000</v>
+        <v>1824.2</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1397.330000</v>
+        <v>-1397.33</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>58690.616791</v>
       </c>
       <c r="B10" s="1">
-        <v>16.302949</v>
+        <v>16.302949000000002</v>
       </c>
       <c r="C10" s="1">
-        <v>901.435000</v>
+        <v>901.43499999999995</v>
       </c>
       <c r="D10" s="1">
-        <v>-198.038000</v>
+        <v>-198.03800000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>58700.724761</v>
+        <v>58700.724760999998</v>
       </c>
       <c r="G10" s="1">
         <v>16.305757</v>
       </c>
       <c r="H10" s="1">
-        <v>918.484000</v>
+        <v>918.48400000000004</v>
       </c>
       <c r="I10" s="1">
-        <v>-167.791000</v>
+        <v>-167.791</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>58711.237468</v>
+        <v>58711.237467999999</v>
       </c>
       <c r="L10" s="1">
-        <v>16.308677</v>
+        <v>16.308676999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>940.804000</v>
+        <v>940.80399999999997</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.703000</v>
+        <v>-118.703</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>58721.781714</v>
+        <v>58721.781713999997</v>
       </c>
       <c r="Q10" s="1">
-        <v>16.311606</v>
+        <v>16.311606000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>947.339000</v>
+        <v>947.33900000000006</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.640000</v>
+        <v>-102.64</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>58732.276299</v>
+        <v>58732.276298999997</v>
       </c>
       <c r="V10" s="1">
-        <v>16.314521</v>
+        <v>16.314520999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>953.661000</v>
+        <v>953.66099999999994</v>
       </c>
       <c r="X10" s="1">
-        <v>-87.802300</v>
+        <v>-87.802300000000002</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>58742.774132</v>
+        <v>58742.774131999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>16.317437</v>
+        <v>16.317437000000002</v>
       </c>
       <c r="AB10" s="1">
-        <v>960.799000</v>
+        <v>960.79899999999998</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.456200</v>
+        <v>-76.456199999999995</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>58753.284355</v>
+        <v>58753.284355000003</v>
       </c>
       <c r="AF10" s="1">
-        <v>16.320357</v>
+        <v>16.320357000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>965.444000</v>
+        <v>965.44399999999996</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.386800</v>
+        <v>-74.386799999999994</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>58763.861014</v>
+        <v>58763.861014000002</v>
       </c>
       <c r="AK10" s="1">
-        <v>16.323295</v>
+        <v>16.323295000000002</v>
       </c>
       <c r="AL10" s="1">
-        <v>972.597000</v>
+        <v>972.59699999999998</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.265400</v>
+        <v>-79.2654</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>58774.501223</v>
+        <v>58774.501222999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>16.326250</v>
+        <v>16.326250000000002</v>
       </c>
       <c r="AQ10" s="1">
-        <v>980.744000</v>
+        <v>980.74400000000003</v>
       </c>
       <c r="AR10" s="1">
-        <v>-90.914100</v>
+        <v>-90.914100000000005</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>58785.497002</v>
+        <v>58785.497001999996</v>
       </c>
       <c r="AU10" s="1">
-        <v>16.329305</v>
+        <v>16.329305000000002</v>
       </c>
       <c r="AV10" s="1">
-        <v>990.669000</v>
+        <v>990.66899999999998</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.625000</v>
+        <v>-108.625</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>58796.600474</v>
+        <v>58796.600473999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>16.332389</v>
+        <v>16.332388999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>998.986000</v>
+        <v>998.98599999999999</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.249000</v>
+        <v>-124.249</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>58807.126540</v>
+        <v>58807.126539999997</v>
       </c>
       <c r="BE10" s="1">
-        <v>16.335313</v>
+        <v>16.335312999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1037.970000</v>
+        <v>1037.97</v>
       </c>
       <c r="BG10" s="1">
-        <v>-195.881000</v>
+        <v>-195.881</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>58818.366414</v>
+        <v>58818.366413999996</v>
       </c>
       <c r="BJ10" s="1">
         <v>16.338435</v>
       </c>
       <c r="BK10" s="1">
-        <v>1105.130000</v>
+        <v>1105.1300000000001</v>
       </c>
       <c r="BL10" s="1">
-        <v>-311.395000</v>
+        <v>-311.39499999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>58829.740638</v>
+        <v>58829.740638000003</v>
       </c>
       <c r="BO10" s="1">
-        <v>16.341595</v>
+        <v>16.341595000000002</v>
       </c>
       <c r="BP10" s="1">
-        <v>1213.830000</v>
+        <v>1213.83</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-492.487000</v>
+        <v>-492.48700000000002</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>58840.149682</v>
+        <v>58840.149682000003</v>
       </c>
       <c r="BT10" s="1">
         <v>16.344486</v>
       </c>
       <c r="BU10" s="1">
-        <v>1335.780000</v>
+        <v>1335.78</v>
       </c>
       <c r="BV10" s="1">
-        <v>-690.155000</v>
+        <v>-690.15499999999997</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>58851.106307</v>
+        <v>58851.106307000002</v>
       </c>
       <c r="BY10" s="1">
-        <v>16.347530</v>
+        <v>16.347529999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1471.250000</v>
+        <v>1471.25</v>
       </c>
       <c r="CA10" s="1">
-        <v>-900.587000</v>
+        <v>-900.58699999999999</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>58862.828789</v>
+        <v>58862.828788999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>16.350786</v>
+        <v>16.350785999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>1824.840000</v>
+        <v>1824.84</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1397.240000</v>
+        <v>-1397.24</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>58691.109852</v>
+        <v>58691.109852000001</v>
       </c>
       <c r="B11" s="1">
         <v>16.303086</v>
       </c>
       <c r="C11" s="1">
-        <v>901.455000</v>
+        <v>901.45500000000004</v>
       </c>
       <c r="D11" s="1">
-        <v>-198.015000</v>
+        <v>-198.01499999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>58701.094281</v>
+        <v>58701.094280999998</v>
       </c>
       <c r="G11" s="1">
-        <v>16.305860</v>
+        <v>16.305859999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>918.281000</v>
+        <v>918.28099999999995</v>
       </c>
       <c r="I11" s="1">
-        <v>-166.830000</v>
+        <v>-166.83</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>58711.582682</v>
       </c>
       <c r="L11" s="1">
-        <v>16.308773</v>
+        <v>16.308772999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>940.846000</v>
+        <v>940.846</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.639000</v>
+        <v>-118.639</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>58722.132620</v>
+        <v>58722.132619999997</v>
       </c>
       <c r="Q11" s="1">
-        <v>16.311704</v>
+        <v>16.311703999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>947.279000</v>
+        <v>947.279</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.622000</v>
+        <v>-102.622</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>58732.621026</v>
+        <v>58732.621026000001</v>
       </c>
       <c r="V11" s="1">
-        <v>16.314617</v>
+        <v>16.314616999999998</v>
       </c>
       <c r="W11" s="1">
-        <v>953.713000</v>
+        <v>953.71299999999997</v>
       </c>
       <c r="X11" s="1">
-        <v>-87.861500</v>
+        <v>-87.861500000000007</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>58743.202676</v>
+        <v>58743.202676000001</v>
       </c>
       <c r="AA11" s="1">
         <v>16.317556</v>
       </c>
       <c r="AB11" s="1">
-        <v>960.784000</v>
+        <v>960.78399999999999</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.473500</v>
+        <v>-76.473500000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>58753.721298</v>
+        <v>58753.721297999997</v>
       </c>
       <c r="AF11" s="1">
-        <v>16.320478</v>
+        <v>16.320478000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>965.427000</v>
+        <v>965.42700000000002</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.435300</v>
+        <v>-74.435299999999998</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>58764.133350</v>
+        <v>58764.133349999996</v>
       </c>
       <c r="AK11" s="1">
-        <v>16.323370</v>
+        <v>16.323370000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>972.605000</v>
+        <v>972.60500000000002</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.240200</v>
+        <v>-79.240200000000002</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>58774.863272</v>
+        <v>58774.863272000002</v>
       </c>
       <c r="AP11" s="1">
-        <v>16.326351</v>
+        <v>16.326350999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>980.728000</v>
+        <v>980.72799999999995</v>
       </c>
       <c r="AR11" s="1">
-        <v>-90.934000</v>
+        <v>-90.933999999999997</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>58785.863050</v>
+        <v>58785.86305</v>
       </c>
       <c r="AU11" s="1">
-        <v>16.329406</v>
+        <v>16.329405999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>990.623000</v>
+        <v>990.62300000000005</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.655000</v>
+        <v>-108.655</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>58796.958286</v>
+        <v>58796.958286000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>16.332488</v>
+        <v>16.332488000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>998.955000</v>
+        <v>998.95500000000004</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.238000</v>
+        <v>-124.238</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>58807.857359</v>
+        <v>58807.857359000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>16.335516</v>
+        <v>16.335515999999998</v>
       </c>
       <c r="BF11" s="1">
-        <v>1038.000000</v>
+        <v>1038</v>
       </c>
       <c r="BG11" s="1">
-        <v>-195.905000</v>
+        <v>-195.905</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>58819.141629</v>
+        <v>58819.141628999998</v>
       </c>
       <c r="BJ11" s="1">
-        <v>16.338650</v>
+        <v>16.338650000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1105.160000</v>
+        <v>1105.1600000000001</v>
       </c>
       <c r="BL11" s="1">
-        <v>-311.377000</v>
+        <v>-311.37700000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>58830.133965</v>
+        <v>58830.133965000001</v>
       </c>
       <c r="BO11" s="1">
         <v>16.341704</v>
       </c>
       <c r="BP11" s="1">
-        <v>1213.850000</v>
+        <v>1213.8499999999999</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-492.498000</v>
+        <v>-492.49799999999999</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>58840.568831</v>
+        <v>58840.568830999997</v>
       </c>
       <c r="BT11" s="1">
-        <v>16.344602</v>
+        <v>16.344601999999998</v>
       </c>
       <c r="BU11" s="1">
-        <v>1335.800000</v>
+        <v>1335.8</v>
       </c>
       <c r="BV11" s="1">
-        <v>-690.119000</v>
+        <v>-690.11900000000003</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>58851.563618</v>
       </c>
       <c r="BY11" s="1">
-        <v>16.347657</v>
+        <v>16.347657000000002</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1471.300000</v>
+        <v>1471.3</v>
       </c>
       <c r="CA11" s="1">
-        <v>-900.543000</v>
+        <v>-900.54300000000001</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>58863.695265</v>
+        <v>58863.695265000002</v>
       </c>
       <c r="CD11" s="1">
-        <v>16.351026</v>
+        <v>16.351026000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1825.360000</v>
+        <v>1825.36</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1397.010000</v>
+        <v>-1397.01</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>58691.343430</v>
+        <v>58691.343430000001</v>
       </c>
       <c r="B12" s="1">
         <v>16.303151</v>
       </c>
       <c r="C12" s="1">
-        <v>901.430000</v>
+        <v>901.43</v>
       </c>
       <c r="D12" s="1">
-        <v>-198.089000</v>
+        <v>-198.089</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>58701.438009</v>
+        <v>58701.438008999998</v>
       </c>
       <c r="G12" s="1">
-        <v>16.305955</v>
+        <v>16.305955000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>918.783000</v>
+        <v>918.78300000000002</v>
       </c>
       <c r="I12" s="1">
-        <v>-167.156000</v>
+        <v>-167.15600000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>58711.928393</v>
+        <v>58711.928393000002</v>
       </c>
       <c r="L12" s="1">
-        <v>16.308869</v>
+        <v>16.308869000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>940.853000</v>
+        <v>940.85299999999995</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.497000</v>
+        <v>-118.497</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>58722.476811</v>
       </c>
       <c r="Q12" s="1">
-        <v>16.311799</v>
+        <v>16.311799000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>947.300000</v>
+        <v>947.3</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.605000</v>
+        <v>-102.605</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>58733.045069</v>
       </c>
       <c r="V12" s="1">
-        <v>16.314735</v>
+        <v>16.314734999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>953.649000</v>
+        <v>953.649</v>
       </c>
       <c r="X12" s="1">
-        <v>-87.828400</v>
+        <v>-87.828400000000002</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>58743.474945</v>
+        <v>58743.474945000002</v>
       </c>
       <c r="AA12" s="1">
         <v>16.317632</v>
       </c>
       <c r="AB12" s="1">
-        <v>960.790000</v>
+        <v>960.79</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.496800</v>
+        <v>-76.496799999999993</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>58753.979714</v>
+        <v>58753.979714000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>16.320550</v>
+        <v>16.320550000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>965.395000</v>
+        <v>965.39499999999998</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.377700</v>
+        <v>-74.377700000000004</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>58764.481541</v>
+        <v>58764.481541000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>16.323467</v>
+        <v>16.323467000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>972.626000</v>
+        <v>972.62599999999998</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.240500</v>
+        <v>-79.240499999999997</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>58775.222375</v>
+        <v>58775.222374999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>16.326451</v>
+        <v>16.326450999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>980.734000</v>
+        <v>980.73400000000004</v>
       </c>
       <c r="AR12" s="1">
-        <v>-90.930800</v>
+        <v>-90.930800000000005</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>58786.226656</v>
+        <v>58786.226655999999</v>
       </c>
       <c r="AU12" s="1">
         <v>16.329507</v>
       </c>
       <c r="AV12" s="1">
-        <v>990.643000</v>
+        <v>990.64300000000003</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.631000</v>
+        <v>-108.631</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>58797.675769</v>
+        <v>58797.675769000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>16.332688</v>
+        <v>16.332688000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>998.973000</v>
+        <v>998.97299999999996</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.262000</v>
+        <v>-124.262</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>58808.239066</v>
+        <v>58808.239066000002</v>
       </c>
       <c r="BE12" s="1">
-        <v>16.335622</v>
+        <v>16.335622000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1037.990000</v>
+        <v>1037.99</v>
       </c>
       <c r="BG12" s="1">
-        <v>-195.854000</v>
+        <v>-195.85400000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>58819.513654</v>
+        <v>58819.513654000002</v>
       </c>
       <c r="BJ12" s="1">
-        <v>16.338754</v>
+        <v>16.338754000000002</v>
       </c>
       <c r="BK12" s="1">
-        <v>1105.150000</v>
+        <v>1105.1500000000001</v>
       </c>
       <c r="BL12" s="1">
-        <v>-311.391000</v>
+        <v>-311.39100000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>58830.555290</v>
+        <v>58830.555289999997</v>
       </c>
       <c r="BO12" s="1">
-        <v>16.341821</v>
+        <v>16.341820999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1213.880000</v>
+        <v>1213.8800000000001</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-492.495000</v>
+        <v>-492.495</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>58841.288496</v>
+        <v>58841.288496000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>16.344802</v>
+        <v>16.344802000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1335.770000</v>
+        <v>1335.77</v>
       </c>
       <c r="BV12" s="1">
-        <v>-690.142000</v>
+        <v>-690.14200000000005</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>58852.320016</v>
+        <v>58852.320015999998</v>
       </c>
       <c r="BY12" s="1">
-        <v>16.347867</v>
+        <v>16.347867000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1471.290000</v>
+        <v>1471.29</v>
       </c>
       <c r="CA12" s="1">
-        <v>-900.521000</v>
+        <v>-900.52099999999996</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>58863.908577</v>
+        <v>58863.908577000002</v>
       </c>
       <c r="CD12" s="1">
-        <v>16.351086</v>
+        <v>16.351085999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>1824.080000</v>
+        <v>1824.08</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1397.490000</v>
+        <v>-1397.49</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>58691.688148</v>
+        <v>58691.688148000001</v>
       </c>
       <c r="B13" s="1">
-        <v>16.303247</v>
+        <v>16.303246999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>901.396000</v>
+        <v>901.39599999999996</v>
       </c>
       <c r="D13" s="1">
-        <v>-198.074000</v>
+        <v>-198.07400000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>58701.783439</v>
+        <v>58701.783438999999</v>
       </c>
       <c r="G13" s="1">
         <v>16.306051</v>
       </c>
       <c r="H13" s="1">
-        <v>918.516000</v>
+        <v>918.51599999999996</v>
       </c>
       <c r="I13" s="1">
-        <v>-167.431000</v>
+        <v>-167.43100000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>58712.357929</v>
+        <v>58712.357928999998</v>
       </c>
       <c r="L13" s="1">
-        <v>16.308988</v>
+        <v>16.308987999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>940.839000</v>
+        <v>940.83900000000006</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.547000</v>
+        <v>-118.547</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>58722.895473</v>
+        <v>58722.895472999997</v>
       </c>
       <c r="Q13" s="1">
-        <v>16.311915</v>
+        <v>16.311914999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>947.319000</v>
+        <v>947.31899999999996</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.595000</v>
+        <v>-102.595</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>58733.312910</v>
+        <v>58733.312910000001</v>
       </c>
       <c r="V13" s="1">
         <v>16.314809</v>
       </c>
       <c r="W13" s="1">
-        <v>953.784000</v>
+        <v>953.78399999999999</v>
       </c>
       <c r="X13" s="1">
-        <v>-87.859500</v>
+        <v>-87.859499999999997</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>58743.825624</v>
+        <v>58743.825623999997</v>
       </c>
       <c r="AA13" s="1">
         <v>16.317729</v>
       </c>
       <c r="AB13" s="1">
-        <v>960.808000</v>
+        <v>960.80799999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.494000</v>
+        <v>-76.494</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>58754.326913</v>
+        <v>58754.326912999997</v>
       </c>
       <c r="AF13" s="1">
         <v>16.320646</v>
       </c>
       <c r="AG13" s="1">
-        <v>965.503000</v>
+        <v>965.50300000000004</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.462600</v>
+        <v>-74.462599999999995</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>58764.836645</v>
+        <v>58764.836645000003</v>
       </c>
       <c r="AK13" s="1">
         <v>16.323566</v>
       </c>
       <c r="AL13" s="1">
-        <v>972.617000</v>
+        <v>972.61699999999996</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.255600</v>
+        <v>-79.255600000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>58775.951989</v>
+        <v>58775.951989000001</v>
       </c>
       <c r="AP13" s="1">
         <v>16.326653</v>
       </c>
       <c r="AQ13" s="1">
-        <v>980.740000</v>
+        <v>980.74</v>
       </c>
       <c r="AR13" s="1">
-        <v>-90.921700</v>
+        <v>-90.921700000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>58786.962219</v>
+        <v>58786.962219000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>16.329712</v>
+        <v>16.329712000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>990.630000</v>
+        <v>990.63</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.631000</v>
+        <v>-108.631</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>58798.037847</v>
       </c>
       <c r="AZ13" s="1">
-        <v>16.332788</v>
+        <v>16.332788000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>998.978000</v>
+        <v>998.97799999999995</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.236000</v>
+        <v>-124.236</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>58808.596186</v>
+        <v>58808.596186000002</v>
       </c>
       <c r="BE13" s="1">
-        <v>16.335721</v>
+        <v>16.335720999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1037.980000</v>
+        <v>1037.98</v>
       </c>
       <c r="BG13" s="1">
-        <v>-195.860000</v>
+        <v>-195.86</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>58819.892075</v>
+        <v>58819.892075000003</v>
       </c>
       <c r="BJ13" s="1">
-        <v>16.338859</v>
+        <v>16.338858999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1105.160000</v>
+        <v>1105.1600000000001</v>
       </c>
       <c r="BL13" s="1">
-        <v>-311.404000</v>
+        <v>-311.404</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>58831.267351</v>
+        <v>58831.267351000002</v>
       </c>
       <c r="BO13" s="1">
-        <v>16.342019</v>
+        <v>16.342019000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1213.860000</v>
+        <v>1213.8599999999999</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-492.491000</v>
+        <v>-492.49099999999999</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>58841.421918</v>
@@ -3518,560 +3934,560 @@
         <v>16.344839</v>
       </c>
       <c r="BU13" s="1">
-        <v>1335.690000</v>
+        <v>1335.69</v>
       </c>
       <c r="BV13" s="1">
-        <v>-690.085000</v>
+        <v>-690.08500000000004</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>58852.442559</v>
+        <v>58852.442559000003</v>
       </c>
       <c r="BY13" s="1">
         <v>16.347901</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1471.380000</v>
+        <v>1471.38</v>
       </c>
       <c r="CA13" s="1">
-        <v>-900.593000</v>
+        <v>-900.59299999999996</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>58864.430369</v>
+        <v>58864.430369000002</v>
       </c>
       <c r="CD13" s="1">
-        <v>16.351231</v>
+        <v>16.351230999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1825.490000</v>
+        <v>1825.49</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1398.560000</v>
+        <v>-1398.56</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>58692.108788</v>
+        <v>58692.108787999998</v>
       </c>
       <c r="B14" s="1">
-        <v>16.303364</v>
+        <v>16.303363999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>901.560000</v>
+        <v>901.56</v>
       </c>
       <c r="D14" s="1">
-        <v>-198.068000</v>
+        <v>-198.06800000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>58702.201879</v>
       </c>
       <c r="G14" s="1">
-        <v>16.306167</v>
+        <v>16.306166999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>918.669000</v>
+        <v>918.66899999999998</v>
       </c>
       <c r="I14" s="1">
-        <v>-167.411000</v>
+        <v>-167.411</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>58712.639689</v>
+        <v>58712.639689000003</v>
       </c>
       <c r="L14" s="1">
-        <v>16.309067</v>
+        <v>16.309066999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>940.820000</v>
+        <v>940.82</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.631000</v>
+        <v>-118.631</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>58723.178154</v>
+        <v>58723.178154000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>16.311994</v>
+        <v>16.311993999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>947.350000</v>
+        <v>947.35</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.590000</v>
+        <v>-102.59</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>58733.654157</v>
+        <v>58733.654156999997</v>
       </c>
       <c r="V14" s="1">
-        <v>16.314904</v>
+        <v>16.314903999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>953.762000</v>
+        <v>953.76199999999994</v>
       </c>
       <c r="X14" s="1">
-        <v>-87.789000</v>
+        <v>-87.789000000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>58744.171842</v>
+        <v>58744.171842000003</v>
       </c>
       <c r="AA14" s="1">
         <v>16.317826</v>
       </c>
       <c r="AB14" s="1">
-        <v>960.740000</v>
+        <v>960.74</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.448200</v>
+        <v>-76.4482</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>58754.665185</v>
+        <v>58754.665184999998</v>
       </c>
       <c r="AF14" s="1">
-        <v>16.320740</v>
+        <v>16.320740000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>965.454000</v>
+        <v>965.45399999999995</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.394500</v>
+        <v>-74.394499999999994</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>58765.530548</v>
+        <v>58765.530548000002</v>
       </c>
       <c r="AK14" s="1">
-        <v>16.323758</v>
+        <v>16.323758000000002</v>
       </c>
       <c r="AL14" s="1">
-        <v>972.617000</v>
+        <v>972.61699999999996</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.240200</v>
+        <v>-79.240200000000002</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>58776.329941</v>
+        <v>58776.329941000004</v>
       </c>
       <c r="AP14" s="1">
-        <v>16.326758</v>
+        <v>16.326758000000002</v>
       </c>
       <c r="AQ14" s="1">
-        <v>980.718000</v>
+        <v>980.71799999999996</v>
       </c>
       <c r="AR14" s="1">
-        <v>-90.921100</v>
+        <v>-90.921099999999996</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>58787.346086</v>
+        <v>58787.346085999998</v>
       </c>
       <c r="AU14" s="1">
         <v>16.329818</v>
       </c>
       <c r="AV14" s="1">
-        <v>990.647000</v>
+        <v>990.64700000000005</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.625000</v>
+        <v>-108.625</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>58798.394012</v>
+        <v>58798.394011999997</v>
       </c>
       <c r="AZ14" s="1">
-        <v>16.332887</v>
+        <v>16.332886999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>998.971000</v>
+        <v>998.971</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.255000</v>
+        <v>-124.255</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>58809.275209</v>
+        <v>58809.275208999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>16.335910</v>
+        <v>16.335909999999998</v>
       </c>
       <c r="BF14" s="1">
-        <v>1037.980000</v>
+        <v>1037.98</v>
       </c>
       <c r="BG14" s="1">
-        <v>-195.905000</v>
+        <v>-195.905</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>58820.570603</v>
       </c>
       <c r="BJ14" s="1">
-        <v>16.339047</v>
+        <v>16.339047000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1105.140000</v>
+        <v>1105.1400000000001</v>
       </c>
       <c r="BL14" s="1">
-        <v>-311.407000</v>
+        <v>-311.40699999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>58831.377932</v>
+        <v>58831.377932000003</v>
       </c>
       <c r="BO14" s="1">
-        <v>16.342049</v>
+        <v>16.342048999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1213.870000</v>
+        <v>1213.8699999999999</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-492.504000</v>
+        <v>-492.50400000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>58841.860909</v>
+        <v>58841.860909000003</v>
       </c>
       <c r="BT14" s="1">
-        <v>16.344961</v>
+        <v>16.344961000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1335.710000</v>
+        <v>1335.71</v>
       </c>
       <c r="BV14" s="1">
-        <v>-690.074000</v>
+        <v>-690.07399999999996</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>58852.868095</v>
+        <v>58852.868094999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>16.348019</v>
+        <v>16.348019000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1471.250000</v>
+        <v>1471.25</v>
       </c>
       <c r="CA14" s="1">
-        <v>-900.547000</v>
+        <v>-900.54700000000003</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>58864.967039</v>
+        <v>58864.967039000003</v>
       </c>
       <c r="CD14" s="1">
-        <v>16.351380</v>
+        <v>16.351379999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1824.850000</v>
+        <v>1824.85</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1397.270000</v>
+        <v>-1397.27</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>58692.388036</v>
+        <v>58692.388035999997</v>
       </c>
       <c r="B15" s="1">
-        <v>16.303441</v>
+        <v>16.303440999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>901.510000</v>
+        <v>901.51</v>
       </c>
       <c r="D15" s="1">
-        <v>-198.074000</v>
+        <v>-198.07400000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>58702.492502</v>
+        <v>58702.492502000001</v>
       </c>
       <c r="G15" s="1">
         <v>16.306248</v>
       </c>
       <c r="H15" s="1">
-        <v>918.763000</v>
+        <v>918.76300000000003</v>
       </c>
       <c r="I15" s="1">
-        <v>-167.333000</v>
+        <v>-167.333</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>58712.985896</v>
+        <v>58712.985895999998</v>
       </c>
       <c r="L15" s="1">
-        <v>16.309163</v>
+        <v>16.309163000000002</v>
       </c>
       <c r="M15" s="1">
-        <v>940.783000</v>
+        <v>940.78300000000002</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.726000</v>
+        <v>-118.726</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>58723.522415</v>
+        <v>58723.522414999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>16.312090</v>
+        <v>16.312090000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>947.319000</v>
+        <v>947.31899999999996</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.625000</v>
+        <v>-102.625</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>58733.998877</v>
+        <v>58733.998876999998</v>
       </c>
       <c r="V15" s="1">
-        <v>16.315000</v>
+        <v>16.315000000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>953.607000</v>
+        <v>953.60699999999997</v>
       </c>
       <c r="X15" s="1">
-        <v>-87.809300</v>
+        <v>-87.809299999999993</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>58744.867215</v>
+        <v>58744.867214999998</v>
       </c>
       <c r="AA15" s="1">
         <v>16.318019</v>
       </c>
       <c r="AB15" s="1">
-        <v>960.685000</v>
+        <v>960.68499999999995</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.487700</v>
+        <v>-76.487700000000004</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>58755.350656</v>
+        <v>58755.350656000002</v>
       </c>
       <c r="AF15" s="1">
-        <v>16.320931</v>
+        <v>16.320931000000002</v>
       </c>
       <c r="AG15" s="1">
-        <v>965.422000</v>
+        <v>965.42200000000003</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.428000</v>
+        <v>-74.427999999999997</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>58765.877252</v>
+        <v>58765.877251999998</v>
       </c>
       <c r="AK15" s="1">
-        <v>16.323855</v>
+        <v>16.323854999999998</v>
       </c>
       <c r="AL15" s="1">
-        <v>972.616000</v>
+        <v>972.61599999999999</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.249900</v>
+        <v>-79.249899999999997</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>58776.689075</v>
+        <v>58776.689075000002</v>
       </c>
       <c r="AP15" s="1">
-        <v>16.326858</v>
+        <v>16.326858000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>980.732000</v>
+        <v>980.73199999999997</v>
       </c>
       <c r="AR15" s="1">
-        <v>-90.907900</v>
+        <v>-90.907899999999998</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>58787.707173</v>
+        <v>58787.707173000003</v>
       </c>
       <c r="AU15" s="1">
         <v>16.329919</v>
       </c>
       <c r="AV15" s="1">
-        <v>990.666000</v>
+        <v>990.66600000000005</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.647000</v>
+        <v>-108.64700000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>58799.063079</v>
       </c>
       <c r="AZ15" s="1">
-        <v>16.333073</v>
+        <v>16.333072999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>998.972000</v>
+        <v>998.97199999999998</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.248000</v>
+        <v>-124.248</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>58809.712680</v>
+        <v>58809.712679999997</v>
       </c>
       <c r="BE15" s="1">
-        <v>16.336031</v>
+        <v>16.336030999999998</v>
       </c>
       <c r="BF15" s="1">
-        <v>1037.970000</v>
+        <v>1037.97</v>
       </c>
       <c r="BG15" s="1">
-        <v>-195.878000</v>
+        <v>-195.87799999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>58820.685178</v>
       </c>
       <c r="BJ15" s="1">
-        <v>16.339079</v>
+        <v>16.339079000000002</v>
       </c>
       <c r="BK15" s="1">
-        <v>1105.170000</v>
+        <v>1105.17</v>
       </c>
       <c r="BL15" s="1">
-        <v>-311.388000</v>
+        <v>-311.38799999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>58831.796061</v>
+        <v>58831.796061000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>16.342166</v>
+        <v>16.342165999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1213.850000</v>
+        <v>1213.8499999999999</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-492.479000</v>
+        <v>-492.47899999999998</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>58842.287933</v>
       </c>
       <c r="BT15" s="1">
-        <v>16.345080</v>
+        <v>16.345079999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1335.620000</v>
+        <v>1335.62</v>
       </c>
       <c r="BV15" s="1">
-        <v>-690.114000</v>
+        <v>-690.11400000000003</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>58853.286720</v>
+        <v>58853.286719999996</v>
       </c>
       <c r="BY15" s="1">
-        <v>16.348135</v>
+        <v>16.348134999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1471.160000</v>
+        <v>1471.16</v>
       </c>
       <c r="CA15" s="1">
-        <v>-900.532000</v>
+        <v>-900.53200000000004</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>58865.507152</v>
+        <v>58865.507151999998</v>
       </c>
       <c r="CD15" s="1">
-        <v>16.351530</v>
+        <v>16.35153</v>
       </c>
       <c r="CE15" s="1">
-        <v>1824.440000</v>
+        <v>1824.44</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1398.560000</v>
+        <v>-1398.56</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>58692.725283</v>
       </c>
@@ -4079,345 +4495,345 @@
         <v>16.303535</v>
       </c>
       <c r="C16" s="1">
-        <v>901.362000</v>
+        <v>901.36199999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>-198.006000</v>
+        <v>-198.006</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>58702.837223</v>
+        <v>58702.837223000002</v>
       </c>
       <c r="G16" s="1">
-        <v>16.306344</v>
+        <v>16.306343999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>918.181000</v>
+        <v>918.18100000000004</v>
       </c>
       <c r="I16" s="1">
-        <v>-167.242000</v>
+        <v>-167.24199999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>58713.330089</v>
+        <v>58713.330089000003</v>
       </c>
       <c r="L16" s="1">
         <v>16.309258</v>
       </c>
       <c r="M16" s="1">
-        <v>940.933000</v>
+        <v>940.93299999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.725000</v>
+        <v>-118.72499999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>58724.210330</v>
+        <v>58724.210330000002</v>
       </c>
       <c r="Q16" s="1">
-        <v>16.312281</v>
+        <v>16.312280999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>947.307000</v>
+        <v>947.30700000000002</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.588000</v>
+        <v>-102.58799999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>58734.684379</v>
+        <v>58734.684378999998</v>
       </c>
       <c r="V16" s="1">
-        <v>16.315190</v>
+        <v>16.315190000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>953.713000</v>
+        <v>953.71299999999997</v>
       </c>
       <c r="X16" s="1">
-        <v>-87.756400</v>
+        <v>-87.756399999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>58745.217424</v>
+        <v>58745.217424000002</v>
       </c>
       <c r="AA16" s="1">
         <v>16.318116</v>
       </c>
       <c r="AB16" s="1">
-        <v>960.753000</v>
+        <v>960.75300000000004</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.504800</v>
+        <v>-76.504800000000003</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>58755.695375</v>
+        <v>58755.695375000003</v>
       </c>
       <c r="AF16" s="1">
         <v>16.321026</v>
       </c>
       <c r="AG16" s="1">
-        <v>965.434000</v>
+        <v>965.43399999999997</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.425700</v>
+        <v>-74.425700000000006</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>58766.225443</v>
+        <v>58766.225443000003</v>
       </c>
       <c r="AK16" s="1">
-        <v>16.323952</v>
+        <v>16.323951999999998</v>
       </c>
       <c r="AL16" s="1">
-        <v>972.605000</v>
+        <v>972.60500000000002</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.266800</v>
+        <v>-79.266800000000003</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>58777.364595</v>
+        <v>58777.364594999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>16.327046</v>
+        <v>16.327045999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>980.736000</v>
+        <v>980.73599999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-90.910800</v>
+        <v>-90.910799999999995</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>58788.442742</v>
+        <v>58788.442741999999</v>
       </c>
       <c r="AU16" s="1">
         <v>16.330123</v>
       </c>
       <c r="AV16" s="1">
-        <v>990.647000</v>
+        <v>990.64700000000005</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.632000</v>
+        <v>-108.63200000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>58799.472774</v>
+        <v>58799.472774000002</v>
       </c>
       <c r="AZ16" s="1">
-        <v>16.333187</v>
+        <v>16.333186999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>998.971000</v>
+        <v>998.971</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.257000</v>
+        <v>-124.25700000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>58810.075753</v>
+        <v>58810.075752999997</v>
       </c>
       <c r="BE16" s="1">
-        <v>16.336132</v>
+        <v>16.336131999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1037.990000</v>
+        <v>1037.99</v>
       </c>
       <c r="BG16" s="1">
-        <v>-195.880000</v>
+        <v>-195.88</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>58821.044281</v>
+        <v>58821.044281000002</v>
       </c>
       <c r="BJ16" s="1">
-        <v>16.339179</v>
+        <v>16.339179000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1105.120000</v>
+        <v>1105.1199999999999</v>
       </c>
       <c r="BL16" s="1">
-        <v>-311.381000</v>
+        <v>-311.38099999999997</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>58832.191408</v>
+        <v>58832.191407999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>16.342275</v>
+        <v>16.342275000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1213.810000</v>
+        <v>1213.81</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-492.511000</v>
+        <v>-492.51100000000002</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>58842.714029</v>
+        <v>58842.714029000002</v>
       </c>
       <c r="BT16" s="1">
         <v>16.345198</v>
       </c>
       <c r="BU16" s="1">
-        <v>1335.620000</v>
+        <v>1335.62</v>
       </c>
       <c r="BV16" s="1">
-        <v>-690.067000</v>
+        <v>-690.06700000000001</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>58853.737584</v>
+        <v>58853.737584000002</v>
       </c>
       <c r="BY16" s="1">
-        <v>16.348260</v>
+        <v>16.34826</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1471.300000</v>
+        <v>1471.3</v>
       </c>
       <c r="CA16" s="1">
-        <v>-900.517000</v>
+        <v>-900.51700000000005</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>58866.048781</v>
+        <v>58866.048780999998</v>
       </c>
       <c r="CD16" s="1">
-        <v>16.351680</v>
+        <v>16.351680000000002</v>
       </c>
       <c r="CE16" s="1">
-        <v>1826.000000</v>
+        <v>1826</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1397.800000</v>
+        <v>-1397.8</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>58693.070530</v>
+        <v>58693.070529999997</v>
       </c>
       <c r="B17" s="1">
-        <v>16.303631</v>
+        <v>16.303630999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>901.513000</v>
+        <v>901.51300000000003</v>
       </c>
       <c r="D17" s="1">
-        <v>-198.080000</v>
+        <v>-198.08</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>58703.180490</v>
+        <v>58703.180489999999</v>
       </c>
       <c r="G17" s="1">
-        <v>16.306439</v>
+        <v>16.306439000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>918.556000</v>
+        <v>918.55600000000004</v>
       </c>
       <c r="I17" s="1">
-        <v>-167.643000</v>
+        <v>-167.643</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>58714.024023</v>
+        <v>58714.024022999998</v>
       </c>
       <c r="L17" s="1">
-        <v>16.309451</v>
+        <v>16.309450999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>940.817000</v>
+        <v>940.81700000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.763000</v>
+        <v>-118.76300000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>58724.569432</v>
+        <v>58724.569431999997</v>
       </c>
       <c r="Q17" s="1">
-        <v>16.312380</v>
+        <v>16.312380000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>947.265000</v>
+        <v>947.26499999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.611000</v>
+        <v>-102.611</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>58735.029068</v>
+        <v>58735.029068000003</v>
       </c>
       <c r="V17" s="1">
         <v>16.315286</v>
       </c>
       <c r="W17" s="1">
-        <v>953.658000</v>
+        <v>953.65800000000002</v>
       </c>
       <c r="X17" s="1">
-        <v>-87.802000</v>
+        <v>-87.802000000000007</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>58745.557645</v>
+        <v>58745.557645000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>16.318210</v>
+        <v>16.318210000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>960.781000</v>
+        <v>960.78099999999995</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.452800</v>
+        <v>-76.452799999999996</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>58756.352606</v>
@@ -4426,1101 +4842,1101 @@
         <v>16.321209</v>
       </c>
       <c r="AG17" s="1">
-        <v>965.572000</v>
+        <v>965.572</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.243000</v>
+        <v>-74.242999999999995</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>58766.894284</v>
+        <v>58766.894284000002</v>
       </c>
       <c r="AK17" s="1">
         <v>16.324137</v>
       </c>
       <c r="AL17" s="1">
-        <v>972.612000</v>
+        <v>972.61199999999997</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.260800</v>
+        <v>-79.260800000000003</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>58777.768340</v>
+        <v>58777.768340000002</v>
       </c>
       <c r="AP17" s="1">
-        <v>16.327158</v>
+        <v>16.327158000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>980.720000</v>
+        <v>980.72</v>
       </c>
       <c r="AR17" s="1">
-        <v>-90.911900</v>
+        <v>-90.911900000000003</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>58788.835572</v>
+        <v>58788.835572000004</v>
       </c>
       <c r="AU17" s="1">
-        <v>16.330232</v>
+        <v>16.330231999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>990.664000</v>
+        <v>990.66399999999999</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.631000</v>
+        <v>-108.631</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>58799.858694</v>
+        <v>58799.858694000002</v>
       </c>
       <c r="AZ17" s="1">
-        <v>16.333294</v>
+        <v>16.333293999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>998.962000</v>
+        <v>998.96199999999999</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.245000</v>
+        <v>-124.245</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>58810.434391</v>
+        <v>58810.434391000003</v>
       </c>
       <c r="BE17" s="1">
-        <v>16.336232</v>
+        <v>16.336231999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1037.990000</v>
+        <v>1037.99</v>
       </c>
       <c r="BG17" s="1">
-        <v>-195.895000</v>
+        <v>-195.89500000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>58821.659854</v>
+        <v>58821.659853999998</v>
       </c>
       <c r="BJ17" s="1">
-        <v>16.339350</v>
+        <v>16.33935</v>
       </c>
       <c r="BK17" s="1">
-        <v>1105.160000</v>
+        <v>1105.1600000000001</v>
       </c>
       <c r="BL17" s="1">
-        <v>-311.418000</v>
+        <v>-311.41800000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>58832.613964</v>
+        <v>58832.613963999996</v>
       </c>
       <c r="BO17" s="1">
-        <v>16.342393</v>
+        <v>16.342393000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1213.810000</v>
+        <v>1213.81</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-492.483000</v>
+        <v>-492.483</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>58843.129643</v>
       </c>
       <c r="BT17" s="1">
-        <v>16.345314</v>
+        <v>16.345313999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>1335.610000</v>
+        <v>1335.61</v>
       </c>
       <c r="BV17" s="1">
-        <v>-690.091000</v>
+        <v>-690.09100000000001</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>58854.156207</v>
       </c>
       <c r="BY17" s="1">
-        <v>16.348377</v>
+        <v>16.348376999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1471.200000</v>
+        <v>1471.2</v>
       </c>
       <c r="CA17" s="1">
-        <v>-900.439000</v>
+        <v>-900.43899999999996</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>58866.587474</v>
       </c>
       <c r="CD17" s="1">
-        <v>16.351830</v>
+        <v>16.35183</v>
       </c>
       <c r="CE17" s="1">
-        <v>1824.140000</v>
+        <v>1824.14</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1397.660000</v>
+        <v>-1397.66</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>58693.752498</v>
+        <v>58693.752498000002</v>
       </c>
       <c r="B18" s="1">
-        <v>16.303820</v>
+        <v>16.303820000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>901.571000</v>
+        <v>901.57100000000003</v>
       </c>
       <c r="D18" s="1">
-        <v>-198.168000</v>
+        <v>-198.16800000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>58703.872372</v>
+        <v>58703.872371999998</v>
       </c>
       <c r="G18" s="1">
-        <v>16.306631</v>
+        <v>16.306630999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>918.616000</v>
+        <v>918.61599999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-167.466000</v>
+        <v>-167.46600000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>58714.368249</v>
+        <v>58714.368248999999</v>
       </c>
       <c r="L18" s="1">
-        <v>16.309547</v>
+        <v>16.309546999999998</v>
       </c>
       <c r="M18" s="1">
-        <v>940.763000</v>
+        <v>940.76300000000003</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.596000</v>
+        <v>-118.596</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>58724.921594</v>
+        <v>58724.921593999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>16.312478</v>
+        <v>16.312477999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>947.259000</v>
+        <v>947.25900000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.568000</v>
+        <v>-102.568</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>58735.372300</v>
+        <v>58735.372300000003</v>
       </c>
       <c r="V18" s="1">
-        <v>16.315381</v>
+        <v>16.315380999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>953.670000</v>
+        <v>953.67</v>
       </c>
       <c r="X18" s="1">
-        <v>-87.864100</v>
+        <v>-87.864099999999993</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>58746.223313</v>
+        <v>58746.223313000002</v>
       </c>
       <c r="AA18" s="1">
-        <v>16.318395</v>
+        <v>16.318394999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>960.709000</v>
+        <v>960.70899999999995</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.511900</v>
+        <v>-76.511899999999997</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>58756.727550</v>
+        <v>58756.727550000003</v>
       </c>
       <c r="AF18" s="1">
         <v>16.321313</v>
       </c>
       <c r="AG18" s="1">
-        <v>965.412000</v>
+        <v>965.41200000000003</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.430300</v>
+        <v>-74.430300000000003</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>58767.271504</v>
+        <v>58767.271503999997</v>
       </c>
       <c r="AK18" s="1">
-        <v>16.324242</v>
+        <v>16.324242000000002</v>
       </c>
       <c r="AL18" s="1">
-        <v>972.615000</v>
+        <v>972.61500000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.248000</v>
+        <v>-79.248000000000005</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>58778.150290</v>
+        <v>58778.150289999998</v>
       </c>
       <c r="AP18" s="1">
         <v>16.327264</v>
       </c>
       <c r="AQ18" s="1">
-        <v>980.711000</v>
+        <v>980.71100000000001</v>
       </c>
       <c r="AR18" s="1">
-        <v>-90.936100</v>
+        <v>-90.936099999999996</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>58789.194181</v>
+        <v>58789.194180999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>16.330332</v>
+        <v>16.330331999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>990.620000</v>
+        <v>990.62</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.646000</v>
+        <v>-108.646</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>58800.216806</v>
+        <v>58800.216805999997</v>
       </c>
       <c r="AZ18" s="1">
-        <v>16.333394</v>
+        <v>16.333393999999998</v>
       </c>
       <c r="BA18" s="1">
-        <v>998.976000</v>
+        <v>998.976</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.249000</v>
+        <v>-124.249</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>58810.847032</v>
+        <v>58810.847031999998</v>
       </c>
       <c r="BE18" s="1">
-        <v>16.336346</v>
+        <v>16.336345999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1037.990000</v>
+        <v>1037.99</v>
       </c>
       <c r="BG18" s="1">
-        <v>-195.874000</v>
+        <v>-195.874</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>58821.826018</v>
       </c>
       <c r="BJ18" s="1">
-        <v>16.339396</v>
+        <v>16.339396000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1105.160000</v>
+        <v>1105.1600000000001</v>
       </c>
       <c r="BL18" s="1">
-        <v>-311.388000</v>
+        <v>-311.38799999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>58833.007785</v>
+        <v>58833.007785000002</v>
       </c>
       <c r="BO18" s="1">
         <v>16.342502</v>
       </c>
       <c r="BP18" s="1">
-        <v>1213.840000</v>
+        <v>1213.8399999999999</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-492.468000</v>
+        <v>-492.46800000000002</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>58843.556203</v>
       </c>
       <c r="BT18" s="1">
-        <v>16.345432</v>
+        <v>16.345431999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1335.520000</v>
+        <v>1335.52</v>
       </c>
       <c r="BV18" s="1">
-        <v>-689.993000</v>
+        <v>-689.99300000000005</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>58854.578333</v>
+        <v>58854.578332999998</v>
       </c>
       <c r="BY18" s="1">
-        <v>16.348494</v>
+        <v>16.348493999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1471.260000</v>
+        <v>1471.26</v>
       </c>
       <c r="CA18" s="1">
-        <v>-900.521000</v>
+        <v>-900.52099999999996</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>58867.123613</v>
+        <v>58867.123613000003</v>
       </c>
       <c r="CD18" s="1">
         <v>16.351979</v>
       </c>
       <c r="CE18" s="1">
-        <v>1825.480000</v>
+        <v>1825.48</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1398.340000</v>
+        <v>-1398.34</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>58694.096259</v>
+        <v>58694.096258999998</v>
       </c>
       <c r="B19" s="1">
-        <v>16.303916</v>
+        <v>16.303916000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>901.510000</v>
+        <v>901.51</v>
       </c>
       <c r="D19" s="1">
-        <v>-198.236000</v>
+        <v>-198.23599999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>58704.215140</v>
+        <v>58704.21514</v>
       </c>
       <c r="G19" s="1">
-        <v>16.306726</v>
+        <v>16.306726000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>918.630000</v>
+        <v>918.63</v>
       </c>
       <c r="I19" s="1">
-        <v>-166.813000</v>
+        <v>-166.81299999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>58714.719382</v>
+        <v>58714.719382000003</v>
       </c>
       <c r="L19" s="1">
-        <v>16.309644</v>
+        <v>16.309643999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>940.783000</v>
+        <v>940.78300000000002</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.553000</v>
+        <v>-118.553</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>58725.584247</v>
+        <v>58725.584246999999</v>
       </c>
       <c r="Q19" s="1">
         <v>16.312662</v>
       </c>
       <c r="R19" s="1">
-        <v>947.310000</v>
+        <v>947.31</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.574000</v>
+        <v>-102.574</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>58736.040410</v>
+        <v>58736.040410000001</v>
       </c>
       <c r="V19" s="1">
-        <v>16.315567</v>
+        <v>16.315567000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>953.674000</v>
+        <v>953.67399999999998</v>
       </c>
       <c r="X19" s="1">
-        <v>-87.854200</v>
+        <v>-87.854200000000006</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>58746.614621</v>
+        <v>58746.614621000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>16.318504</v>
+        <v>16.318504000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>960.683000</v>
+        <v>960.68299999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.335000</v>
+        <v>-76.334999999999994</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>58757.069791</v>
+        <v>58757.069791000002</v>
       </c>
       <c r="AF19" s="1">
-        <v>16.321408</v>
+        <v>16.321408000000002</v>
       </c>
       <c r="AG19" s="1">
-        <v>965.421000</v>
+        <v>965.42100000000005</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.420800</v>
+        <v>-74.4208</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>58767.618209</v>
       </c>
       <c r="AK19" s="1">
-        <v>16.324338</v>
+        <v>16.324338000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>972.607000</v>
+        <v>972.60699999999997</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.250400</v>
+        <v>-79.250399999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>58778.514321</v>
+        <v>58778.514321000002</v>
       </c>
       <c r="AP19" s="1">
         <v>16.327365</v>
       </c>
       <c r="AQ19" s="1">
-        <v>980.727000</v>
+        <v>980.72699999999998</v>
       </c>
       <c r="AR19" s="1">
-        <v>-90.935100</v>
+        <v>-90.935100000000006</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>58789.622756</v>
+        <v>58789.622755999997</v>
       </c>
       <c r="AU19" s="1">
         <v>16.330451</v>
       </c>
       <c r="AV19" s="1">
-        <v>990.640000</v>
+        <v>990.64</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.602000</v>
+        <v>-108.602</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>58800.653290</v>
+        <v>58800.653290000002</v>
       </c>
       <c r="AZ19" s="1">
-        <v>16.333515</v>
+        <v>16.333514999999998</v>
       </c>
       <c r="BA19" s="1">
-        <v>998.962000</v>
+        <v>998.96199999999999</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.257000</v>
+        <v>-124.25700000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>58811.159512</v>
+        <v>58811.159511999998</v>
       </c>
       <c r="BE19" s="1">
         <v>16.336433</v>
       </c>
       <c r="BF19" s="1">
-        <v>1037.970000</v>
+        <v>1037.97</v>
       </c>
       <c r="BG19" s="1">
-        <v>-195.872000</v>
+        <v>-195.87200000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>58822.201484</v>
+        <v>58822.201483999997</v>
       </c>
       <c r="BJ19" s="1">
-        <v>16.339500</v>
+        <v>16.339500000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1105.140000</v>
+        <v>1105.1400000000001</v>
       </c>
       <c r="BL19" s="1">
-        <v>-311.411000</v>
+        <v>-311.411</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>58833.429916</v>
+        <v>58833.429916000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>16.342619</v>
+        <v>16.342618999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1213.830000</v>
+        <v>1213.83</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-492.470000</v>
+        <v>-492.47</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>58843.971883</v>
+        <v>58843.971882999998</v>
       </c>
       <c r="BT19" s="1">
-        <v>16.345548</v>
+        <v>16.345548000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1335.480000</v>
+        <v>1335.48</v>
       </c>
       <c r="BV19" s="1">
-        <v>-690.097000</v>
+        <v>-690.09699999999998</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>58855.024737</v>
       </c>
       <c r="BY19" s="1">
-        <v>16.348618</v>
+        <v>16.348617999999998</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1471.290000</v>
+        <v>1471.29</v>
       </c>
       <c r="CA19" s="1">
-        <v>-900.536000</v>
+        <v>-900.53599999999994</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>58867.665740</v>
+        <v>58867.665739999997</v>
       </c>
       <c r="CD19" s="1">
-        <v>16.352129</v>
+        <v>16.352129000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1824.990000</v>
+        <v>1824.99</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1397.120000</v>
+        <v>-1397.12</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>58694.435488</v>
+        <v>58694.435488000003</v>
       </c>
       <c r="B20" s="1">
-        <v>16.304010</v>
+        <v>16.304010000000002</v>
       </c>
       <c r="C20" s="1">
-        <v>901.486000</v>
+        <v>901.48599999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-198.158000</v>
+        <v>-198.15799999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>58704.560821</v>
+        <v>58704.560820999999</v>
       </c>
       <c r="G20" s="1">
         <v>16.306822</v>
       </c>
       <c r="H20" s="1">
-        <v>918.409000</v>
+        <v>918.40899999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-166.969000</v>
+        <v>-166.96899999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>58715.382291</v>
+        <v>58715.382291000002</v>
       </c>
       <c r="L20" s="1">
         <v>16.309828</v>
       </c>
       <c r="M20" s="1">
-        <v>940.808000</v>
+        <v>940.80799999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.588000</v>
+        <v>-118.58799999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>58725.966664</v>
       </c>
       <c r="Q20" s="1">
-        <v>16.312769</v>
+        <v>16.312768999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>947.321000</v>
+        <v>947.32100000000003</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.618000</v>
+        <v>-102.61799999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>58736.402521</v>
+        <v>58736.402521000004</v>
       </c>
       <c r="V20" s="1">
-        <v>16.315667</v>
+        <v>16.315667000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>953.704000</v>
+        <v>953.70399999999995</v>
       </c>
       <c r="X20" s="1">
-        <v>-87.852400</v>
+        <v>-87.852400000000003</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>58746.960368</v>
       </c>
       <c r="AA20" s="1">
-        <v>16.318600</v>
+        <v>16.3186</v>
       </c>
       <c r="AB20" s="1">
-        <v>960.768000</v>
+        <v>960.76800000000003</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.460600</v>
+        <v>-76.460599999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>58757.414509</v>
+        <v>58757.414509000002</v>
       </c>
       <c r="AF20" s="1">
-        <v>16.321504</v>
+        <v>16.321504000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>965.395000</v>
+        <v>965.39499999999998</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.400300</v>
+        <v>-74.400300000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>58767.970405</v>
       </c>
       <c r="AK20" s="1">
-        <v>16.324436</v>
+        <v>16.324435999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>972.605000</v>
+        <v>972.60500000000002</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.262100</v>
+        <v>-79.262100000000004</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>58778.933441</v>
+        <v>58778.933441000001</v>
       </c>
       <c r="AP20" s="1">
         <v>16.327482</v>
       </c>
       <c r="AQ20" s="1">
-        <v>980.730000</v>
+        <v>980.73</v>
       </c>
       <c r="AR20" s="1">
-        <v>-90.922500</v>
+        <v>-90.922499999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>58789.923794</v>
+        <v>58789.923794000002</v>
       </c>
       <c r="AU20" s="1">
         <v>16.330534</v>
       </c>
       <c r="AV20" s="1">
-        <v>990.635000</v>
+        <v>990.63499999999999</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.640000</v>
+        <v>-108.64</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>58800.931012</v>
+        <v>58800.931012000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>16.333592</v>
+        <v>16.333591999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>998.985000</v>
+        <v>998.98500000000001</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.276000</v>
+        <v>-124.276</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>58811.520597</v>
+        <v>58811.520597000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>16.336533</v>
+        <v>16.336532999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1037.980000</v>
+        <v>1037.98</v>
       </c>
       <c r="BG20" s="1">
-        <v>-195.897000</v>
+        <v>-195.89699999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>58822.578438</v>
+        <v>58822.578437999997</v>
       </c>
       <c r="BJ20" s="1">
-        <v>16.339605</v>
+        <v>16.339604999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1105.170000</v>
+        <v>1105.17</v>
       </c>
       <c r="BL20" s="1">
-        <v>-311.371000</v>
+        <v>-311.37099999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>58833.828666</v>
+        <v>58833.828666000001</v>
       </c>
       <c r="BO20" s="1">
-        <v>16.342730</v>
+        <v>16.34273</v>
       </c>
       <c r="BP20" s="1">
-        <v>1213.840000</v>
+        <v>1213.8399999999999</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-492.507000</v>
+        <v>-492.50700000000001</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>58844.399936</v>
+        <v>58844.399936000002</v>
       </c>
       <c r="BT20" s="1">
-        <v>16.345667</v>
+        <v>16.345666999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1335.450000</v>
+        <v>1335.45</v>
       </c>
       <c r="BV20" s="1">
-        <v>-690.039000</v>
+        <v>-690.03899999999999</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>58855.458699</v>
+        <v>58855.458699000003</v>
       </c>
       <c r="BY20" s="1">
-        <v>16.348739</v>
+        <v>16.348738999999998</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1471.320000</v>
+        <v>1471.32</v>
       </c>
       <c r="CA20" s="1">
-        <v>-900.568000</v>
+        <v>-900.56799999999998</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>58868.208860</v>
+        <v>58868.208859999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>16.352280</v>
+        <v>16.35228</v>
       </c>
       <c r="CE20" s="1">
-        <v>1824.650000</v>
+        <v>1824.65</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1398.540000</v>
+        <v>-1398.54</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>58695.087728</v>
+        <v>58695.087727999999</v>
       </c>
       <c r="B21" s="1">
-        <v>16.304191</v>
+        <v>16.304190999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>901.505000</v>
+        <v>901.505</v>
       </c>
       <c r="D21" s="1">
-        <v>-198.220000</v>
+        <v>-198.22</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>58705.222484</v>
+        <v>58705.222483999998</v>
       </c>
       <c r="G21" s="1">
-        <v>16.307006</v>
+        <v>16.307006000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>918.790000</v>
+        <v>918.79</v>
       </c>
       <c r="I21" s="1">
-        <v>-167.407000</v>
+        <v>-167.40700000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>58715.753077</v>
+        <v>58715.753077000001</v>
       </c>
       <c r="L21" s="1">
-        <v>16.309931</v>
+        <v>16.309930999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>940.661000</v>
+        <v>940.66099999999994</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.657000</v>
+        <v>-118.657</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>58726.315351</v>
+        <v>58726.315350999997</v>
       </c>
       <c r="Q21" s="1">
-        <v>16.312865</v>
+        <v>16.312864999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>947.300000</v>
+        <v>947.3</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.627000</v>
+        <v>-102.627</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>58736.744233</v>
+        <v>58736.744232999998</v>
       </c>
       <c r="V21" s="1">
-        <v>16.315762</v>
+        <v>16.315761999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>953.652000</v>
+        <v>953.65200000000004</v>
       </c>
       <c r="X21" s="1">
-        <v>-87.832900</v>
+        <v>-87.832899999999995</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>58747.308557</v>
+        <v>58747.308556999997</v>
       </c>
       <c r="AA21" s="1">
         <v>16.318697</v>
       </c>
       <c r="AB21" s="1">
-        <v>960.769000</v>
+        <v>960.76900000000001</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.530800</v>
+        <v>-76.530799999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>58757.850990</v>
+        <v>58757.850989999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>16.321625</v>
+        <v>16.321625000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>965.420000</v>
+        <v>965.42</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.429600</v>
+        <v>-74.429599999999994</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>58768.399935</v>
+        <v>58768.399935000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>16.324556</v>
+        <v>16.324556000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>972.613000</v>
+        <v>972.61300000000006</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.262200</v>
+        <v>-79.262200000000007</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>58779.233521</v>
+        <v>58779.233521000002</v>
       </c>
       <c r="AP21" s="1">
         <v>16.327565</v>
       </c>
       <c r="AQ21" s="1">
-        <v>980.733000</v>
+        <v>980.73299999999995</v>
       </c>
       <c r="AR21" s="1">
-        <v>-90.912400</v>
+        <v>-90.912400000000005</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>58790.287390</v>
+        <v>58790.287389999998</v>
       </c>
       <c r="AU21" s="1">
-        <v>16.330635</v>
+        <v>16.330635000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>990.647000</v>
+        <v>990.64700000000005</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.631000</v>
+        <v>-108.631</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>58801.297060</v>
+        <v>58801.297059999997</v>
       </c>
       <c r="AZ21" s="1">
-        <v>16.333694</v>
+        <v>16.333694000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>998.966000</v>
+        <v>998.96600000000001</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.253000</v>
+        <v>-124.253</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>58811.881191</v>
@@ -5529,362 +5945,362 @@
         <v>16.336634</v>
       </c>
       <c r="BF21" s="1">
-        <v>1037.980000</v>
+        <v>1037.98</v>
       </c>
       <c r="BG21" s="1">
-        <v>-195.874000</v>
+        <v>-195.874</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>58823.328358</v>
+        <v>58823.328357999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>16.339813</v>
+        <v>16.339812999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1105.140000</v>
+        <v>1105.1400000000001</v>
       </c>
       <c r="BL21" s="1">
-        <v>-311.400000</v>
+        <v>-311.39999999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>58834.248776</v>
       </c>
       <c r="BO21" s="1">
-        <v>16.342847</v>
+        <v>16.342846999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1213.810000</v>
+        <v>1213.81</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-492.456000</v>
+        <v>-492.45600000000002</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>58844.828442</v>
+        <v>58844.828441999998</v>
       </c>
       <c r="BT21" s="1">
         <v>16.345786</v>
       </c>
       <c r="BU21" s="1">
-        <v>1335.390000</v>
+        <v>1335.39</v>
       </c>
       <c r="BV21" s="1">
-        <v>-690.153000</v>
+        <v>-690.15300000000002</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>58855.877819</v>
+        <v>58855.877819000001</v>
       </c>
       <c r="BY21" s="1">
         <v>16.348855</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1471.340000</v>
+        <v>1471.34</v>
       </c>
       <c r="CA21" s="1">
-        <v>-900.458000</v>
+        <v>-900.45799999999997</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>58868.747546</v>
+        <v>58868.747545999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>16.352430</v>
+        <v>16.352429999999998</v>
       </c>
       <c r="CE21" s="1">
-        <v>1825.940000</v>
+        <v>1825.94</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1397.450000</v>
+        <v>-1397.45</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>58695.450304</v>
+        <v>58695.450303999998</v>
       </c>
       <c r="B22" s="1">
         <v>16.304292</v>
       </c>
       <c r="C22" s="1">
-        <v>901.474000</v>
+        <v>901.47400000000005</v>
       </c>
       <c r="D22" s="1">
-        <v>-198.012000</v>
+        <v>-198.012</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>58705.593026</v>
+        <v>58705.593026000002</v>
       </c>
       <c r="G22" s="1">
-        <v>16.307109</v>
+        <v>16.307109000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>918.413000</v>
+        <v>918.41300000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-168.005000</v>
+        <v>-168.005</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>58716.095285</v>
+        <v>58716.095285000003</v>
       </c>
       <c r="L22" s="1">
-        <v>16.310026</v>
+        <v>16.310026000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>940.878000</v>
+        <v>940.87800000000004</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.639000</v>
+        <v>-118.639</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>58726.661558</v>
       </c>
       <c r="Q22" s="1">
-        <v>16.312962</v>
+        <v>16.312961999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>947.313000</v>
+        <v>947.31299999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.632000</v>
+        <v>-102.63200000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>58737.088984</v>
+        <v>58737.088984000002</v>
       </c>
       <c r="V22" s="1">
-        <v>16.315858</v>
+        <v>16.315857999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>953.694000</v>
+        <v>953.69399999999996</v>
       </c>
       <c r="X22" s="1">
-        <v>-87.820400</v>
+        <v>-87.820400000000006</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>58747.738554</v>
+        <v>58747.738554000003</v>
       </c>
       <c r="AA22" s="1">
-        <v>16.318816</v>
+        <v>16.318816000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>960.856000</v>
+        <v>960.85599999999999</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.528500</v>
+        <v>-76.528499999999994</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>58758.128254</v>
+        <v>58758.128254000003</v>
       </c>
       <c r="AF22" s="1">
-        <v>16.321702</v>
+        <v>16.321701999999998</v>
       </c>
       <c r="AG22" s="1">
-        <v>965.428000</v>
+        <v>965.428</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.395900</v>
+        <v>-74.395899999999997</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>58768.678690</v>
+        <v>58768.678690000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>16.324633</v>
+        <v>16.324632999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>972.619000</v>
+        <v>972.61900000000003</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.272000</v>
+        <v>-79.272000000000006</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>58779.592624</v>
+        <v>58779.592623999997</v>
       </c>
       <c r="AP22" s="1">
         <v>16.327665</v>
       </c>
       <c r="AQ22" s="1">
-        <v>980.718000</v>
+        <v>980.71799999999996</v>
       </c>
       <c r="AR22" s="1">
-        <v>-90.897600</v>
+        <v>-90.897599999999997</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>58790.652423</v>
       </c>
       <c r="AU22" s="1">
-        <v>16.330737</v>
+        <v>16.330736999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>990.634000</v>
+        <v>990.63400000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.653000</v>
+        <v>-108.65300000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>58801.655171</v>
+        <v>58801.655170999999</v>
       </c>
       <c r="AZ22" s="1">
         <v>16.333793</v>
       </c>
       <c r="BA22" s="1">
-        <v>998.974000</v>
+        <v>998.97400000000005</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.258000</v>
+        <v>-124.258</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>58812.602373</v>
+        <v>58812.602373000002</v>
       </c>
       <c r="BE22" s="1">
         <v>16.336834</v>
       </c>
       <c r="BF22" s="1">
-        <v>1037.970000</v>
+        <v>1037.97</v>
       </c>
       <c r="BG22" s="1">
-        <v>-195.891000</v>
+        <v>-195.89099999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>58823.705325</v>
+        <v>58823.705325000003</v>
       </c>
       <c r="BJ22" s="1">
-        <v>16.339918</v>
+        <v>16.339918000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1105.190000</v>
+        <v>1105.19</v>
       </c>
       <c r="BL22" s="1">
-        <v>-311.403000</v>
+        <v>-311.40300000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>58834.643109</v>
+        <v>58834.643108999997</v>
       </c>
       <c r="BO22" s="1">
-        <v>16.342956</v>
+        <v>16.342956000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1213.860000</v>
+        <v>1213.8599999999999</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-492.483000</v>
+        <v>-492.483</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>58845.241641</v>
+        <v>58845.241641000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>16.345900</v>
+        <v>16.3459</v>
       </c>
       <c r="BU22" s="1">
-        <v>1335.410000</v>
+        <v>1335.41</v>
       </c>
       <c r="BV22" s="1">
-        <v>-690.144000</v>
+        <v>-690.14400000000001</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>58856.605450</v>
+        <v>58856.605450000003</v>
       </c>
       <c r="BY22" s="1">
-        <v>16.349057</v>
+        <v>16.349056999999998</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1471.240000</v>
+        <v>1471.24</v>
       </c>
       <c r="CA22" s="1">
-        <v>-900.550000</v>
+        <v>-900.55</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>58869.615550</v>
+        <v>58869.615550000002</v>
       </c>
       <c r="CD22" s="1">
-        <v>16.352671</v>
+        <v>16.352671000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1824.810000</v>
+        <v>1824.81</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1398.660000</v>
+        <v>-1398.66</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>58695.802463</v>
       </c>
       <c r="B23" s="1">
-        <v>16.304390</v>
+        <v>16.304390000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>901.437000</v>
+        <v>901.43700000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-198.154000</v>
+        <v>-198.154</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>58705.938705</v>
@@ -5893,1011 +6309,1012 @@
         <v>16.307205</v>
       </c>
       <c r="H23" s="1">
-        <v>918.486000</v>
+        <v>918.48599999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-167.296000</v>
+        <v>-167.29599999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>58716.441492</v>
+        <v>58716.441491999998</v>
       </c>
       <c r="L23" s="1">
-        <v>16.310123</v>
+        <v>16.310123000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>940.811000</v>
+        <v>940.81100000000004</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.762000</v>
+        <v>-118.762</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>58727.084149</v>
+        <v>58727.084149000002</v>
       </c>
       <c r="Q23" s="1">
-        <v>16.313079</v>
+        <v>16.313078999999998</v>
       </c>
       <c r="R23" s="1">
-        <v>947.313000</v>
+        <v>947.31299999999999</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.609000</v>
+        <v>-102.60899999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>58737.518520</v>
+        <v>58737.518519999998</v>
       </c>
       <c r="V23" s="1">
         <v>16.315977</v>
       </c>
       <c r="W23" s="1">
-        <v>953.808000</v>
+        <v>953.80799999999999</v>
       </c>
       <c r="X23" s="1">
-        <v>-87.791400</v>
+        <v>-87.791399999999996</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>58748.017307</v>
+        <v>58748.017307000002</v>
       </c>
       <c r="AA23" s="1">
         <v>16.318894</v>
       </c>
       <c r="AB23" s="1">
-        <v>960.726000</v>
+        <v>960.726</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.500800</v>
+        <v>-76.500799999999998</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>58758.474461</v>
+        <v>58758.474460999998</v>
       </c>
       <c r="AF23" s="1">
-        <v>16.321798</v>
+        <v>16.321798000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>965.440000</v>
+        <v>965.44</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.421200</v>
+        <v>-74.421199999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>58769.027532</v>
       </c>
       <c r="AK23" s="1">
-        <v>16.324730</v>
+        <v>16.324729999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>972.642000</v>
+        <v>972.64200000000005</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.240300</v>
+        <v>-79.240300000000005</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>58779.953217</v>
+        <v>58779.953217000002</v>
       </c>
       <c r="AP23" s="1">
-        <v>16.327765</v>
+        <v>16.327764999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>980.711000</v>
+        <v>980.71100000000001</v>
       </c>
       <c r="AR23" s="1">
-        <v>-90.911800</v>
+        <v>-90.911799999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>58791.382530</v>
+        <v>58791.382530000003</v>
       </c>
       <c r="AU23" s="1">
-        <v>16.330940</v>
+        <v>16.330939999999998</v>
       </c>
       <c r="AV23" s="1">
-        <v>990.650000</v>
+        <v>990.65</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.633000</v>
+        <v>-108.633</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>58802.372425</v>
+        <v>58802.372425000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>16.333992</v>
+        <v>16.333991999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>998.962000</v>
+        <v>998.96199999999999</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.266000</v>
+        <v>-124.26600000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>58812.987269</v>
+        <v>58812.987268999997</v>
       </c>
       <c r="BE23" s="1">
-        <v>16.336941</v>
+        <v>16.336940999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1037.980000</v>
+        <v>1037.98</v>
       </c>
       <c r="BG23" s="1">
-        <v>-195.869000</v>
+        <v>-195.869</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>58824.078806</v>
+        <v>58824.078805999998</v>
       </c>
       <c r="BJ23" s="1">
-        <v>16.340022</v>
+        <v>16.340022000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1105.140000</v>
+        <v>1105.1400000000001</v>
       </c>
       <c r="BL23" s="1">
-        <v>-311.371000</v>
+        <v>-311.37099999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>58835.065192</v>
+        <v>58835.065192000002</v>
       </c>
       <c r="BO23" s="1">
-        <v>16.343074</v>
+        <v>16.343074000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1213.880000</v>
+        <v>1213.8800000000001</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-492.485000</v>
+        <v>-492.48500000000001</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>58845.985113</v>
+        <v>58845.985113000002</v>
       </c>
       <c r="BT23" s="1">
         <v>16.346107</v>
       </c>
       <c r="BU23" s="1">
-        <v>1335.390000</v>
+        <v>1335.39</v>
       </c>
       <c r="BV23" s="1">
-        <v>-690.213000</v>
+        <v>-690.21299999999997</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>58856.726010</v>
+        <v>58856.726009999998</v>
       </c>
       <c r="BY23" s="1">
-        <v>16.349091</v>
+        <v>16.349091000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1471.240000</v>
+        <v>1471.24</v>
       </c>
       <c r="CA23" s="1">
-        <v>-900.516000</v>
+        <v>-900.51599999999996</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>58869.835241</v>
+        <v>58869.835241000001</v>
       </c>
       <c r="CD23" s="1">
         <v>16.352732</v>
       </c>
       <c r="CE23" s="1">
-        <v>1824.870000</v>
+        <v>1824.87</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1398.910000</v>
+        <v>-1398.91</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>58696.144702</v>
+        <v>58696.144701999998</v>
       </c>
       <c r="B24" s="1">
         <v>16.304485</v>
       </c>
       <c r="C24" s="1">
-        <v>901.520000</v>
+        <v>901.52</v>
       </c>
       <c r="D24" s="1">
-        <v>-198.074000</v>
+        <v>-198.07400000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>58706.287889</v>
+        <v>58706.287888999999</v>
       </c>
       <c r="G24" s="1">
         <v>16.307302</v>
       </c>
       <c r="H24" s="1">
-        <v>918.537000</v>
+        <v>918.53700000000003</v>
       </c>
       <c r="I24" s="1">
-        <v>-167.339000</v>
+        <v>-167.339</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>58716.857171</v>
+        <v>58716.857171000003</v>
       </c>
       <c r="L24" s="1">
-        <v>16.310238</v>
+        <v>16.310237999999998</v>
       </c>
       <c r="M24" s="1">
-        <v>940.705000</v>
+        <v>940.70500000000004</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.567000</v>
+        <v>-118.56699999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>58727.359956</v>
       </c>
       <c r="Q24" s="1">
-        <v>16.313156</v>
+        <v>16.313155999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>947.307000</v>
+        <v>947.30700000000002</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.591000</v>
+        <v>-102.59099999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>58737.799224</v>
+        <v>58737.799224000002</v>
       </c>
       <c r="V24" s="1">
-        <v>16.316055</v>
+        <v>16.316054999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>953.786000</v>
+        <v>953.78599999999994</v>
       </c>
       <c r="X24" s="1">
-        <v>-87.812000</v>
+        <v>-87.811999999999998</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>58748.367481</v>
+        <v>58748.367481000001</v>
       </c>
       <c r="AA24" s="1">
         <v>16.318991</v>
       </c>
       <c r="AB24" s="1">
-        <v>960.794000</v>
+        <v>960.79399999999998</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.407100</v>
+        <v>-76.4071</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>58758.817691</v>
+        <v>58758.817690999997</v>
       </c>
       <c r="AF24" s="1">
         <v>16.321894</v>
       </c>
       <c r="AG24" s="1">
-        <v>965.407000</v>
+        <v>965.40700000000004</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.400300</v>
+        <v>-74.400300000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>58769.376525</v>
       </c>
       <c r="AK24" s="1">
-        <v>16.324827</v>
+        <v>16.324826999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>972.626000</v>
+        <v>972.62599999999998</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.268300</v>
+        <v>-79.268299999999996</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>58780.674399</v>
+        <v>58780.674399000003</v>
       </c>
       <c r="AP24" s="1">
-        <v>16.327965</v>
+        <v>16.327964999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>980.747000</v>
+        <v>980.74699999999996</v>
       </c>
       <c r="AR24" s="1">
-        <v>-90.912200</v>
+        <v>-90.912199999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>58791.747616</v>
+        <v>58791.747616000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>16.331041</v>
+        <v>16.331040999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>990.614000</v>
+        <v>990.61400000000003</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.623000</v>
+        <v>-108.623</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>58802.728515</v>
+        <v>58802.728515000003</v>
       </c>
       <c r="AZ24" s="1">
-        <v>16.334091</v>
+        <v>16.334091000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>998.977000</v>
+        <v>998.97699999999998</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.265000</v>
+        <v>-124.265</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>58813.352355</v>
+        <v>58813.352355000003</v>
       </c>
       <c r="BE24" s="1">
         <v>16.337042</v>
       </c>
       <c r="BF24" s="1">
-        <v>1037.980000</v>
+        <v>1037.98</v>
       </c>
       <c r="BG24" s="1">
-        <v>-195.877000</v>
+        <v>-195.87700000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>58824.773241</v>
+        <v>58824.773241000003</v>
       </c>
       <c r="BJ24" s="1">
-        <v>16.340215</v>
+        <v>16.340215000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1105.170000</v>
+        <v>1105.17</v>
       </c>
       <c r="BL24" s="1">
-        <v>-311.385000</v>
+        <v>-311.38499999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>58835.772487</v>
+        <v>58835.772487000002</v>
       </c>
       <c r="BO24" s="1">
-        <v>16.343270</v>
+        <v>16.34327</v>
       </c>
       <c r="BP24" s="1">
-        <v>1213.870000</v>
+        <v>1213.8699999999999</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-492.488000</v>
+        <v>-492.488</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>58846.096713</v>
+        <v>58846.096712999999</v>
       </c>
       <c r="BT24" s="1">
         <v>16.346138</v>
       </c>
       <c r="BU24" s="1">
-        <v>1335.310000</v>
+        <v>1335.31</v>
       </c>
       <c r="BV24" s="1">
-        <v>-690.245000</v>
+        <v>-690.245</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>58857.173866</v>
+        <v>58857.173865999997</v>
       </c>
       <c r="BY24" s="1">
-        <v>16.349215</v>
+        <v>16.349215000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1471.410000</v>
+        <v>1471.41</v>
       </c>
       <c r="CA24" s="1">
-        <v>-900.535000</v>
+        <v>-900.53499999999997</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>58870.347640</v>
+        <v>58870.34764</v>
       </c>
       <c r="CD24" s="1">
         <v>16.352874</v>
       </c>
       <c r="CE24" s="1">
-        <v>1825.740000</v>
+        <v>1825.74</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1397.570000</v>
+        <v>-1397.57</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>58696.566799</v>
       </c>
       <c r="B25" s="1">
-        <v>16.304602</v>
+        <v>16.304601999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>901.431000</v>
+        <v>901.43100000000004</v>
       </c>
       <c r="D25" s="1">
-        <v>-198.062000</v>
+        <v>-198.06200000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>58706.730816</v>
+        <v>58706.730816000003</v>
       </c>
       <c r="G25" s="1">
-        <v>16.307425</v>
+        <v>16.307424999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>918.391000</v>
+        <v>918.39099999999996</v>
       </c>
       <c r="I25" s="1">
-        <v>-167.190000</v>
+        <v>-167.19</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>58717.154738</v>
+        <v>58717.154737999997</v>
       </c>
       <c r="L25" s="1">
-        <v>16.310321</v>
+        <v>16.310320999999998</v>
       </c>
       <c r="M25" s="1">
-        <v>940.931000</v>
+        <v>940.93100000000004</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.624000</v>
+        <v>-118.624</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>58727.708613</v>
+        <v>58727.708613000003</v>
       </c>
       <c r="Q25" s="1">
-        <v>16.313252</v>
+        <v>16.313251999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>947.311000</v>
+        <v>947.31100000000004</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.589000</v>
+        <v>-102.589</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>58738.142952</v>
+        <v>58738.142952000002</v>
       </c>
       <c r="V25" s="1">
-        <v>16.316151</v>
+        <v>16.316151000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>953.700000</v>
+        <v>953.7</v>
       </c>
       <c r="X25" s="1">
-        <v>-87.762100</v>
+        <v>-87.762100000000004</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>58748.718650</v>
+        <v>58748.718650000003</v>
       </c>
       <c r="AA25" s="1">
-        <v>16.319089</v>
+        <v>16.319089000000002</v>
       </c>
       <c r="AB25" s="1">
-        <v>960.761000</v>
+        <v>960.76099999999997</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.505100</v>
+        <v>-76.505099999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>58759.500682</v>
+        <v>58759.500681999998</v>
       </c>
       <c r="AF25" s="1">
         <v>16.322084</v>
       </c>
       <c r="AG25" s="1">
-        <v>965.408000</v>
+        <v>965.40800000000002</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.390900</v>
+        <v>-74.390900000000002</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>58770.075390</v>
+        <v>58770.075389999998</v>
       </c>
       <c r="AK25" s="1">
         <v>16.325021</v>
       </c>
       <c r="AL25" s="1">
-        <v>972.637000</v>
+        <v>972.63699999999994</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.250100</v>
+        <v>-79.250100000000003</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>58781.035024</v>
+        <v>58781.035023999997</v>
       </c>
       <c r="AP25" s="1">
-        <v>16.328065</v>
+        <v>16.328064999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>980.705000</v>
+        <v>980.70500000000004</v>
       </c>
       <c r="AR25" s="1">
-        <v>-90.946900</v>
+        <v>-90.946899999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>58792.111184</v>
+        <v>58792.111184000001</v>
       </c>
       <c r="AU25" s="1">
         <v>16.331142</v>
       </c>
       <c r="AV25" s="1">
-        <v>990.657000</v>
+        <v>990.65700000000004</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.646000</v>
+        <v>-108.646</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>58803.085137</v>
+        <v>58803.085137000002</v>
       </c>
       <c r="AZ25" s="1">
-        <v>16.334190</v>
+        <v>16.33419</v>
       </c>
       <c r="BA25" s="1">
-        <v>998.977000</v>
+        <v>998.97699999999998</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.254000</v>
+        <v>-124.254</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>58814.033330</v>
+        <v>58814.033329999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>16.337231</v>
+        <v>16.337230999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1037.980000</v>
+        <v>1037.98</v>
       </c>
       <c r="BG25" s="1">
-        <v>-195.891000</v>
+        <v>-195.89099999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>58825.205220</v>
+        <v>58825.205220000003</v>
       </c>
       <c r="BJ25" s="1">
         <v>16.340335</v>
       </c>
       <c r="BK25" s="1">
-        <v>1105.150000</v>
+        <v>1105.1500000000001</v>
       </c>
       <c r="BL25" s="1">
-        <v>-311.398000</v>
+        <v>-311.39800000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>58835.883591</v>
+        <v>58835.883590999998</v>
       </c>
       <c r="BO25" s="1">
         <v>16.343301</v>
       </c>
       <c r="BP25" s="1">
-        <v>1213.840000</v>
+        <v>1213.8399999999999</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-492.477000</v>
+        <v>-492.47699999999998</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>58846.535671</v>
+        <v>58846.535670999998</v>
       </c>
       <c r="BT25" s="1">
-        <v>16.346260</v>
+        <v>16.346260000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1335.310000</v>
+        <v>1335.31</v>
       </c>
       <c r="BV25" s="1">
-        <v>-690.178000</v>
+        <v>-690.178</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>58857.607896</v>
+        <v>58857.607896000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>16.349336</v>
+        <v>16.349336000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1471.310000</v>
+        <v>1471.31</v>
       </c>
       <c r="CA25" s="1">
-        <v>-900.492000</v>
+        <v>-900.49199999999996</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>58870.863447</v>
+        <v>58870.863447000003</v>
       </c>
       <c r="CD25" s="1">
-        <v>16.353018</v>
+        <v>16.353017999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1825.580000</v>
+        <v>1825.58</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1398.220000</v>
+        <v>-1398.22</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>58696.847535</v>
+        <v>58696.847535000001</v>
       </c>
       <c r="B26" s="1">
-        <v>16.304680</v>
+        <v>16.304680000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>901.393000</v>
+        <v>901.39300000000003</v>
       </c>
       <c r="D26" s="1">
-        <v>-198.213000</v>
+        <v>-198.21299999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>58706.980800</v>
+        <v>58706.980799999998</v>
       </c>
       <c r="G26" s="1">
-        <v>16.307495</v>
+        <v>16.307494999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>918.384000</v>
+        <v>918.38400000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-167.243000</v>
+        <v>-167.24299999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>58717.500979</v>
+        <v>58717.500978999997</v>
       </c>
       <c r="L26" s="1">
-        <v>16.310417</v>
+        <v>16.310417000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>940.781000</v>
+        <v>940.78099999999995</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.633000</v>
+        <v>-118.633</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>58728.055317</v>
+        <v>58728.055316999998</v>
       </c>
       <c r="Q26" s="1">
-        <v>16.313349</v>
+        <v>16.313348999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>947.370000</v>
+        <v>947.37</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.649000</v>
+        <v>-102.649</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>58738.488663</v>
+        <v>58738.488662999996</v>
       </c>
       <c r="V26" s="1">
-        <v>16.316247</v>
+        <v>16.316247000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>953.805000</v>
+        <v>953.80499999999995</v>
       </c>
       <c r="X26" s="1">
-        <v>-87.789100</v>
+        <v>-87.789100000000005</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>58749.400152</v>
+        <v>58749.400152000002</v>
       </c>
       <c r="AA26" s="1">
-        <v>16.319278</v>
+        <v>16.319278000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>960.755000</v>
+        <v>960.755</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.410800</v>
+        <v>-76.410799999999995</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>58759.846890</v>
+        <v>58759.846890000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>16.322180</v>
+        <v>16.322179999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>965.411000</v>
+        <v>965.41099999999994</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.387000</v>
+        <v>-74.387</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>58770.423612</v>
+        <v>58770.423611999999</v>
       </c>
       <c r="AK26" s="1">
         <v>16.325118</v>
       </c>
       <c r="AL26" s="1">
-        <v>972.611000</v>
+        <v>972.61099999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.235400</v>
+        <v>-79.235399999999998</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>58781.394094</v>
+        <v>58781.394094000003</v>
       </c>
       <c r="AP26" s="1">
-        <v>16.328165</v>
+        <v>16.328164999999998</v>
       </c>
       <c r="AQ26" s="1">
-        <v>980.724000</v>
+        <v>980.72400000000005</v>
       </c>
       <c r="AR26" s="1">
-        <v>-90.899500</v>
+        <v>-90.899500000000003</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>58792.781248</v>
+        <v>58792.781247999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>16.331328</v>
+        <v>16.331327999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>990.626000</v>
+        <v>990.62599999999998</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.635000</v>
+        <v>-108.63500000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>58803.766640</v>
+        <v>58803.766640000002</v>
       </c>
       <c r="AZ26" s="1">
-        <v>16.334380</v>
+        <v>16.334379999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>998.964000</v>
+        <v>998.96400000000006</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.248000</v>
+        <v>-124.248</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>58814.462370</v>
+        <v>58814.462370000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>16.337351</v>
+        <v>16.337351000000002</v>
       </c>
       <c r="BF26" s="1">
-        <v>1037.990000</v>
+        <v>1037.99</v>
       </c>
       <c r="BG26" s="1">
-        <v>-195.880000</v>
+        <v>-195.88</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>58825.581683</v>
+        <v>58825.581682999997</v>
       </c>
       <c r="BJ26" s="1">
         <v>16.340439</v>
       </c>
       <c r="BK26" s="1">
-        <v>1105.140000</v>
+        <v>1105.1400000000001</v>
       </c>
       <c r="BL26" s="1">
-        <v>-311.392000</v>
+        <v>-311.392</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>58836.304797</v>
+        <v>58836.304796999997</v>
       </c>
       <c r="BO26" s="1">
         <v>16.343418</v>
       </c>
       <c r="BP26" s="1">
-        <v>1213.850000</v>
+        <v>1213.8499999999999</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-492.534000</v>
+        <v>-492.53399999999999</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>58846.944872</v>
       </c>
       <c r="BT26" s="1">
-        <v>16.346374</v>
+        <v>16.346374000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1335.370000</v>
+        <v>1335.37</v>
       </c>
       <c r="BV26" s="1">
-        <v>-690.326000</v>
+        <v>-690.32600000000002</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>58858.034920</v>
+        <v>58858.034919999998</v>
       </c>
       <c r="BY26" s="1">
-        <v>16.349454</v>
+        <v>16.349454000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1471.340000</v>
+        <v>1471.34</v>
       </c>
       <c r="CA26" s="1">
-        <v>-900.651000</v>
+        <v>-900.65099999999995</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>58871.414007</v>
+        <v>58871.414006999999</v>
       </c>
       <c r="CD26" s="1">
         <v>16.353171</v>
       </c>
       <c r="CE26" s="1">
-        <v>1824.800000</v>
+        <v>1824.8</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1398.560000</v>
+        <v>-1398.56</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>